--- a/Test Case/Nithya/Test Case- Lab & General Billing.xlsx
+++ b/Test Case/Nithya/Test Case- Lab & General Billing.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\CentralRepository-Mediware\Test Case\Nithya\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F14F94-85F9-43F5-8BE9-22B9EBE7EA85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab &amp; General Billing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="467">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1215,12 +1221,952 @@
   <si>
     <t>MED_LGB_TC_038</t>
   </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP,Billing,Pharmacy and IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify that follwing fields with checkbox are displayed:
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The follwing fields with checkbox should be displayed:
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t>Verify that follwing check boxes are checked except Pharamcy which is checked by default
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t>Follwing check boxes should be  checked except Pharamcy which is checked by default
+1.OP
+2.Billing
+3.Pharmacy
+4.IP</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_039</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP and Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in Cash field  and check the OP checkbox(Pharmacy is checked by defualt) </t>
+  </si>
+  <si>
+    <t>Checkbox "OP" should be checked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on Save&gt;&gt;Yes </t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in Cash field  and check the IP checkbox(Pharmacy is checked by defualt) </t>
+  </si>
+  <si>
+    <t>Checkbox "IP" should be checked</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter amount in Cash field  and check the Billing checkbox(Pharmacy is checked by defualt) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checkbox  "Billing" should be checked</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_042</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_043</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for IP and Pharmacy</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for Billing and Pharmacy</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP,Billing and Pharmacy</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the following checkbox(Pharmacy is checked by defualt) 
+1.OP
+2.Billing
+3.Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Following checkboxes  should be checked
+1.OP
+2.Billing
+3.Pharmacy</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_044</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for IP,Billing and Pharmacy</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the following checkbox(Pharmacy is checked by defualt) 
+1.IP
+2.Billing
+3.Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Following checkboxes  should be checked
+1.IP
+2.Billing
+3.Pharmacy</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance entry for OP,IP and Pharmacy</t>
+  </si>
+  <si>
+    <t>Enter amount in Cash field  and check the following checkbox(Pharmacy is checked by defualt) 
+1.OP
+2.IP
+3.Pharmacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Following checkboxes  should be checked
+1.OP
+2.IP
+3.Pharmacy</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_045</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_046</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to export patients details in an excel sheet.</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that following fields are displayed:
+1.Patient No
+2.Reg.Date
+3.Patient Name
+4.Phone
+5.Salutation
+6.Address
+7.Mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.National Unique ID
+9.Nationality
+10.Email
+11.Employee No
+12.Organisation
+13.Region
+14.Religion
+15.Occupation</t>
+    </r>
+  </si>
+  <si>
+    <t>The following fields should be displayed
+1.Patient No
+2.Reg.Date
+3.Patient Name
+4.Phone
+5.Salutation
+6.Address
+7.Mobile
+8.National Unique ID
+9.Nationality
+10.Email
+11.Employee No
+12.Organisation
+13.Region
+14.Religion
+15.Occupation</t>
+  </si>
+  <si>
+    <r>
+      <t>Enter any of the following fields and click on Search Patient
+1.Patient No
+2.Reg.Date
+3.Patient Name
+4.Phone
+5.Salutation
+6.Address
+7.Mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8.Email
+</t>
+    </r>
+  </si>
+  <si>
+    <t>A table with patient details should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Export to Excel</t>
+  </si>
+  <si>
+    <t>Excel sheet containing patient search result  should be downloaded</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Patient Search page should be displayed</t>
+  </si>
+  <si>
+    <t>Verify whether a highlighted message "Advance Collected" is displayed while transfering an advance amount for a patient who have already an advance entry.</t>
+  </si>
+  <si>
+    <t>Enter already registered Patient ID who have already an advance entry and press Enter key</t>
+  </si>
+  <si>
+    <t>Patient information should be displayed and a highlighted message "Advance Collected" should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Advance Collected</t>
+  </si>
+  <si>
+    <t>ADVANCE INFORMATION table should be displayed</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_047</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_048</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to print a patient information</t>
+  </si>
+  <si>
+    <t>Mouse hover in the column "Name" and click Patient Information icon</t>
+  </si>
+  <si>
+    <t>Patient Information Slip should be displayed with following details
+1.Patient ID
+2.Patient Name
+3.Address
+4.DOB
+5.Registration Date
+6.Email
+7.Doctor Name
+8.Mobile</t>
+  </si>
+  <si>
+    <t>User should be able to print Patient Information Slip</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to print  a patient Medical Record</t>
+  </si>
+  <si>
+    <t>Click on Medical Record Print icon(red)</t>
+  </si>
+  <si>
+    <t>PATIENT REGISTRATION slip should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to print patient Medical Record</t>
+  </si>
+  <si>
+    <t>Click on Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to close the page </t>
+  </si>
+  <si>
+    <t>Patient No:NH00000100</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_049</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to view Package details</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Select Transactions&gt;&gt;Click on Package Details</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_050</t>
+  </si>
+  <si>
+    <t>Enter already registered Patient ID who have already added Package Details &gt;&gt; Click on View</t>
+  </si>
+  <si>
+    <t>Package Details page should be displayed with following fields
+1.Patient ID
+2.Title
+3.Patient Name
+4.Sex
+5.DOB
+6.Years
+7.Month
+8.View
+9.Clear
+10.Close
+11.Package Details View</t>
+  </si>
+  <si>
+    <t>Patient Id:NH00000540</t>
+  </si>
+  <si>
+    <t>Page should be populated with following fields and package detailing  table
+1.Patient ID
+2.Title
+3.Patient Name
+4.Sex
+5.DOB
+6.Years
+7.Month</t>
+  </si>
+  <si>
+    <t>Click on Clear</t>
+  </si>
+  <si>
+    <t>Following fields should be cleared
+1.Patient ID
+2.Title
+3.Patient Name
+4.Sex
+5.DOB
+6.Years
+7.Month
+8.Package Detailing table</t>
+  </si>
+  <si>
+    <t>Package Details Page should be closed and Navigate to Default page</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_051</t>
+  </si>
+  <si>
+    <t>Click on the Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify whether user is able to Approve and save Package details </t>
+  </si>
+  <si>
+    <t>Page should be displayed with package details View  table with
+1.Bill No
+2.Patient#
+3.Patient Name</t>
+  </si>
+  <si>
+    <t>Click on Maximize&gt;&gt;Click  all the Check Boxes in the Approval Section &gt;&gt;Click save</t>
+  </si>
+  <si>
+    <t>Check boxes should be checked and "Data Saved"message should be displayed</t>
+  </si>
+  <si>
+    <t>Test case to verify Patient wise Bill Search with Combination of Bill Type and Patient No.</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_052</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Select Query&gt;&gt;Click on Patient Number Bill search</t>
+  </si>
+  <si>
+    <t>Page should be displayed with the following fields
+1.Bill No
+2.Patient No
+3.Bill Type
+4.Patient Name</t>
+  </si>
+  <si>
+    <t>Enter Patient No. and select Bill type from the drop down list &gt;&gt;Click View</t>
+  </si>
+  <si>
+    <t>Page should be displayed with following fields
+1.Date
+2.Bill
+3.Pay Type
+4.Patient
+5.Amount
+6.Status</t>
+  </si>
+  <si>
+    <t>Patient No:NH00000540
+Bill Type:Op Credit</t>
+  </si>
+  <si>
+    <t>The page should be closed</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_053</t>
+  </si>
+  <si>
+    <t>Test case to verify Patient wise Bill Search with Combination of Bill Type and Patient Name</t>
+  </si>
+  <si>
+    <t>Enter Patient Name and select Bill type from the drop down list &gt;&gt;Click View</t>
+  </si>
+  <si>
+    <t>Patient No:Havu
+Bill Type:Op Credit</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_054</t>
+  </si>
+  <si>
+    <t>Test case to verify Patient wise Bill Search with Combination of Bill Type and Bill No</t>
+  </si>
+  <si>
+    <t>Enter Bill No and select Bill type from the drop down list &gt;&gt;Click View</t>
+  </si>
+  <si>
+    <t>Bill No:242
+Bill Type:Op Credit</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_055</t>
+  </si>
+  <si>
+    <t>Test case to verify Patient wise Bill Search with Combination of Bill Type and Date</t>
+  </si>
+  <si>
+    <t>Select From and To date from date picker and select Bill type from the drop down list &gt;&gt;Click View</t>
+  </si>
+  <si>
+    <t>From:7/05/2019
+To:30/05/2019
+Bill Type:Op Credit</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_056</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Select Query&gt;&gt;Click on Doctor search</t>
+  </si>
+  <si>
+    <t>Page should be displayed with the following fields
+1.Hospital
+2.Search 
+3.Doctor Name
+4.Qualification
+5.Department
+6.Speciality</t>
+  </si>
+  <si>
+    <t>Page should be displayed with a table containing filtered data according to the search box selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Close </t>
+  </si>
+  <si>
+    <t>The page should be closed and navigate to Default page</t>
+  </si>
+  <si>
+    <t>Test case to verify Doctor Search with Doctor Name,Speciality ,Department and Hospital</t>
+  </si>
+  <si>
+    <t>Click on Search Box and enter any of the following Data and press Enter/Select Hospital from the drop down list
+1.Doctor Name
+2.Speciality
+3.Department</t>
+  </si>
+  <si>
+    <t>Doctor Name:AMIN KELANI
+Speciality:SPECIALIST UROLOGY
+Department:UROLOGY</t>
+  </si>
+  <si>
+    <t>Test case to verify Mandatory Field Update</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Select Utilities&gt;&gt;Click on Mandatory Field Update</t>
+  </si>
+  <si>
+    <t>Page should be displayed with the following fields
+1.Billing
+2.Birth Entry
+3.Consolidated Bill
+4.Death Entry
+5.OP New Registration 
+6.OP Visit</t>
+  </si>
+  <si>
+    <t>Select Mandatory field by click on check boxes in Status field</t>
+  </si>
+  <si>
+    <t>Selected status field should be checked</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_057</t>
+  </si>
+  <si>
+    <t>Page should be displayed with any of the followung messages
+1."Date Saved Successfully"
+2."Data Updated Successfully"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on any of the following 
+1.Generate
+2.Update
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on any of the following 
+1.Generate
+2.Update
+Click on Close </t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_058</t>
+  </si>
+  <si>
+    <t>Test case to verify Billing Screen Settings</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Select Utilities&gt;&gt;Click on Parameter Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page should be displayed with the following fields
+1.Bill Counter Details
+2.Billing Screen Settings
+3.Bill Type in Billing
+4.Partial Payment in Billing
+5.Last Bill No
+</t>
+  </si>
+  <si>
+    <t>Click on Billing Screen Settings</t>
+  </si>
+  <si>
+    <t>Page should be opened with Billing Screen Settings</t>
+  </si>
+  <si>
+    <t>Select the check box corresponding to the screen settings and select Alias Entry in Billing from the drop down list
+1.Alias Based
+2.CPT Based
+3.Normal</t>
+  </si>
+  <si>
+    <t>Check boxes should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Save </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Page should be Navigate to Billing Parameter Page 
+2."Data Saved Successfully"message should be displayed
+</t>
+  </si>
+  <si>
+    <t>Alias Entry in Billing:Normal</t>
+  </si>
+  <si>
+    <t>Test case to verify Partial Payment in Billing</t>
+  </si>
+  <si>
+    <t>Click on the Allow Partial Payment check box</t>
+  </si>
+  <si>
+    <t>Page should be Displayed with following fields
+1.Allow Partial Payment
+2.OP Counter
+3.IP Counter</t>
+  </si>
+  <si>
+    <t>Select OP Counter from the drop down list</t>
+  </si>
+  <si>
+    <t>OP counter should be selected</t>
+  </si>
+  <si>
+    <t>Select IP Counter frtom the drop down list</t>
+  </si>
+  <si>
+    <t>IP Counter should be selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on save </t>
+  </si>
+  <si>
+    <t>"Data Saved Successfully " message should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP Counter:MARINA
+</t>
+  </si>
+  <si>
+    <t>IP Counter:IP COUNTER</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_059</t>
+  </si>
+  <si>
+    <t>Test case to verify Bill Type in Billing Counter Details</t>
+  </si>
+  <si>
+    <t>Page should be populated with followng data
+1.Description
+2.Short Name</t>
+  </si>
+  <si>
+    <t>Select any of the following Bill Type in Billing
+1.Cash
+2.OP Credir
+3.Credit
+4.Inpatient
+5.Complimentary</t>
+  </si>
+  <si>
+    <t>Page should be displayed with selected Bill Type</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_060</t>
+  </si>
+  <si>
+    <t>Verify Mandatory Fields
+1.Description
+2.Short Name</t>
+  </si>
+  <si>
+    <t>Test case to verify Bill Bill Parameter Settings</t>
+  </si>
+  <si>
+    <t>Enter Following fields
+1.Address
+2.Item Category
+3.Web Link Path
+4.Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data should be entered in the following fields
+1.Address
+3.Web Link Path
+4.Cash
+</t>
+  </si>
+  <si>
+    <t>Address:Tv Nagar
+Web Link Path:http://10.101.17.31/Master
+Cash:5000</t>
+  </si>
+  <si>
+    <t>Select any of  the following check boxes
+1.Color print
+2.Color print</t>
+  </si>
+  <si>
+    <t>Select Data from the following  drop down list
+1.Status
+2.Pending Refund Requisition
+3.Bill No.Generation Based On
+4.Lab Outlet
+5.Radiology Outlet
+6.In Patient Payment Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select any of the Check boxes
+1.Color print
+2.Color print
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to select data from the following Drop down list
+1.Status
+2.Pending Refund Requisition
+3.Bill No.Generation Based On
+4.Lab Outlet
+5.Radiology Outlet
+6.In Patient Payment Mode
+</t>
+  </si>
+  <si>
+    <t>Status:Active
+Pending Refund Requisition:No Request
+Bill No.Generation Based On:Outlet
+Lab Outlet:LAB Charges(NSH)
+Radiology Outlet:Radiology Charge (NSH)
+In Patient Payment Mode:In Patient mode</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_061</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_062</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance refund for the patient by Cash</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Select Transactions&gt;&gt;Click on Advance Refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance Refund page should be displayed </t>
+  </si>
+  <si>
+    <t>Enter already registered Advance number and press enter key</t>
+  </si>
+  <si>
+    <t>Patient information should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that following fields are displayed:
+1.Refund Amount
+2.Type
+3.Cheque/DD No
+4.Cheque/DD Date
+5.Payment Types
+6.Bank Name
+7.Refund Description
+</t>
+  </si>
+  <si>
+    <t>The following fields should be displayed
+1.Refund Amount
+2.Type
+3.Cheque/DD No
+4.Cheque/DD Date
+5.Payment Types
+6.Bank Name
+7.Refund Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter refund amount and select Cash from dropdown
+2.Click on Save
+</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance refund for the patient by Cheque/DD-Payment Type-BANK TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter refund amount and select Cheque/DD from dropdown
+2.Enter following details in corresponding field and click on Save
+      1.Cheque/DD No
+      2.Cheque/DD Date
+      3.Payment Types as BANK TRANSFER
+      4.Select Bank Name from dropdown
+</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_063</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_064</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance refund for the patient by Cheque/DD-Payment Type-GIFT VOUCHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter refund amount and select Cheque/DD from dropdown
+2.Enter following details in corresponding field and click on Save
+      1.Cheque/DD No
+      2.Cheque/DD Date
+      3.Payment Types as GIFT VOUCHER
+      4.Select Bank Name from dropdown
+</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_065</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance refund for the patient by Cheque/DD-Payment Type-CHEQUE</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that following fields are displayed:
+1.Refund Amount
+2.Type
+3.Credit Card No
+4.Expiry Date
+5.Credit Card Name
+6.Refund Description
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The following fields should be displayed
+1.Refund Amount
+2.Type
+3.Credit Card No
+4.Expiry Date
+5.Credit Card Name
+6.Refund Description
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter refund amount and select Credit Card from dropdown
+2.Enter following details in corresponding field and click on Save
+      1.Credit Card No
+      2.Expiry Date
+      3.Credit Card Name
+      4.Refund Description
+</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save an advance refund for the patient by Credit Card</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_067</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to search advance amount from   advance refund page</t>
+  </si>
+  <si>
+    <t>Advance Search page should be displayed</t>
+  </si>
+  <si>
+    <t>Follwing details should be displayed in Advance Refund page
+1.Advance #
+2.Patient Information
+       1.Patient No
+       2.Name
+3.Advance Amount
+4.Balance Amount</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_068</t>
+  </si>
+  <si>
+    <t>Click on Refund Search</t>
+  </si>
+  <si>
+    <t>Refund Search page  should be displayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter any of the following fields and click on Search Refund
+1.Refund no
+2.Refund date
+3.Advance no
+4.Patient Name
+5.Patient No
+</t>
+  </si>
+  <si>
+    <t>A table should be displayed in the same page with following details
+1.SI#
+2.Refund Date
+3.Refund No
+4.Patient No
+5.Name
+6.Advance No
+7.Net Amount
+8.Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance Refund page should be displayed with following details
+1.Patient Information
+      1.Patient No
+      2.Name
+2.Refund Details
+       1.Refund#
+       2.Date
+       3.Balance Amount </t>
+  </si>
+  <si>
+    <t>"Data Deleted Successfully" message should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Refund Search&gt;&gt;click on Search Refund</t>
+  </si>
+  <si>
+    <t>A table with status "Cancelled" should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Cancelled </t>
+  </si>
+  <si>
+    <t>Advance Refund page with message "Cancelled!" should be displayed</t>
+  </si>
+  <si>
+    <t>Patient No:NH00000100
+Patient Name:Raju
+Advance No:000023
+Advance date:12/may/2019</t>
+  </si>
+  <si>
+    <t>Refund no:000022
+Refund date:
+Advance no:000052
+Patient Name:GOHSOON ALABAD
+Patient No:NH00000047</t>
+  </si>
+  <si>
+    <t>Credit Card No:254789999344777
+Expiry Date:22/MAY/2022
+Credit Card Name:RAJU
+Refund Description:Amount Towards Advance Refund</t>
+  </si>
+  <si>
+    <t>Cheque/DD No:254789999344777
+Cheque/DD Date:05/05/2019
+Payment Types :CHEQUE
+Bank Name :SBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter refund amount and select Cheque/DD from dropdown
+2.Enter following details in corresponding field and click on Save
+      1.Cheque/DD No
+      2.Cheque/DD Date
+      3.Payment Types as CHEQUE
+      4. Bank Name 
+</t>
+  </si>
+  <si>
+    <t>Cheque/DD No:254789999344777
+ Cheque/DD Date:05/05/2022</t>
+  </si>
+  <si>
+    <t>Refund Amount:500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1728,22 +2674,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S733"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
+      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I613" sqref="I613"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="7" customWidth="1"/>
@@ -1759,7 +2705,7 @@
     <col min="16" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="30">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +2752,7 @@
       </c>
       <c r="S1" s="27"/>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="33.75" customHeight="1">
+    <row r="2" spans="1:19" s="10" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -1839,7 +2785,7 @@
       </c>
       <c r="P2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>12</v>
@@ -1849,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="10" customFormat="1" ht="30">
+    <row r="3" spans="1:19" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
@@ -1884,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" ht="45">
+    <row r="4" spans="1:19" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1916,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="75">
+    <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="E5" s="7">
         <v>4</v>
       </c>
@@ -1939,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="60">
+    <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E6" s="7">
         <v>5</v>
       </c>
@@ -1955,7 +2901,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="75">
+    <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="E7" s="7">
         <v>6</v>
       </c>
@@ -1968,7 +2914,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="7">
         <v>7</v>
       </c>
@@ -1981,7 +2927,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:19" ht="60">
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E9" s="7">
         <v>8</v>
       </c>
@@ -1997,7 +2943,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="7">
         <v>9</v>
       </c>
@@ -2010,7 +2956,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
@@ -2020,11 +2966,11 @@
       <c r="K11" s="5"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K12" s="5"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:19" ht="45">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2995,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="30">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="7">
         <v>2</v>
       </c>
@@ -2062,7 +3008,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:19" ht="45">
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E15" s="7">
         <v>3</v>
       </c>
@@ -2075,7 +3021,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="75">
+    <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="E16" s="7">
         <v>4</v>
       </c>
@@ -2091,7 +3037,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" ht="60">
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E17" s="7">
         <v>5</v>
       </c>
@@ -2107,7 +3053,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="60">
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E18" s="7">
         <v>6</v>
       </c>
@@ -2120,7 +3066,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" ht="90">
+    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E19" s="7">
         <v>7</v>
       </c>
@@ -2133,7 +3079,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="60">
+    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E20" s="7">
         <v>8</v>
       </c>
@@ -2149,7 +3095,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" ht="30">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E21" s="7">
         <v>9</v>
       </c>
@@ -2162,11 +3108,11 @@
       <c r="K21" s="5"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22" s="5"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>20</v>
       </c>
@@ -2188,7 +3134,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="30">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E24" s="7">
         <v>2</v>
       </c>
@@ -2201,7 +3147,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" ht="45">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="7">
         <v>3</v>
       </c>
@@ -2214,7 +3160,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="75">
+    <row r="26" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E26" s="7">
         <v>4</v>
       </c>
@@ -2230,7 +3176,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" ht="150">
+    <row r="27" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E27" s="7">
         <v>5</v>
       </c>
@@ -2243,7 +3189,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E28" s="7">
         <v>6</v>
       </c>
@@ -2256,11 +3202,11 @@
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K29" s="5"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="45">
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -2282,7 +3228,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" ht="30">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E31" s="7">
         <v>2</v>
       </c>
@@ -2295,7 +3241,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="45">
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E32" s="7">
         <v>3</v>
       </c>
@@ -2308,7 +3254,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" ht="75">
+    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E33" s="7">
         <v>4</v>
       </c>
@@ -2324,7 +3270,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="150">
+    <row r="34" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E34" s="7">
         <v>5</v>
       </c>
@@ -2337,7 +3283,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" ht="60">
+    <row r="35" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E35" s="7">
         <v>6</v>
       </c>
@@ -2350,7 +3296,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="90">
+    <row r="36" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E36" s="7">
         <v>7</v>
       </c>
@@ -2363,7 +3309,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" ht="60">
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E37" s="7">
         <v>8</v>
       </c>
@@ -2379,7 +3325,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="30">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E38" s="7">
         <v>9</v>
       </c>
@@ -2392,7 +3338,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" ht="60">
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E39" s="7">
         <v>10</v>
       </c>
@@ -2405,7 +3351,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="30">
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E40" s="7">
         <v>6</v>
       </c>
@@ -2418,12 +3364,12 @@
       <c r="K40" s="5"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="K41" s="5"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="45">
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>22</v>
       </c>
@@ -2445,7 +3391,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" ht="30">
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E43" s="7">
         <v>2</v>
       </c>
@@ -2458,7 +3404,7 @@
       <c r="K43" s="5"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="45">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E44" s="7">
         <v>3</v>
       </c>
@@ -2471,7 +3417,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" ht="30">
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E45" s="7">
         <v>4</v>
       </c>
@@ -2484,7 +3430,7 @@
       <c r="K45" s="5"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="150">
+    <row r="46" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E46" s="7">
         <v>5</v>
       </c>
@@ -2497,7 +3443,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" ht="60">
+    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E47" s="7">
         <v>6</v>
       </c>
@@ -2510,7 +3456,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="90">
+    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E48" s="7">
         <v>7</v>
       </c>
@@ -2523,7 +3469,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" ht="60">
+    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E49" s="7">
         <v>8</v>
       </c>
@@ -2539,7 +3485,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" ht="30">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E50" s="7">
         <v>9</v>
       </c>
@@ -2552,7 +3498,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" ht="90">
+    <row r="51" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E51" s="7">
         <v>10</v>
       </c>
@@ -2568,7 +3514,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" ht="30">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E52" s="7">
         <v>11</v>
       </c>
@@ -2581,7 +3527,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E53" s="7">
         <v>12</v>
       </c>
@@ -2594,7 +3540,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="30">
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E54" s="7">
         <v>6</v>
       </c>
@@ -2607,12 +3553,12 @@
       <c r="K54" s="5"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="K55" s="5"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" ht="45">
+    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -2634,7 +3580,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" ht="30">
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E57" s="7">
         <v>2</v>
       </c>
@@ -2647,7 +3593,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" ht="45">
+    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E58" s="7">
         <v>3</v>
       </c>
@@ -2660,7 +3606,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" ht="75">
+    <row r="59" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E59" s="7">
         <v>4</v>
       </c>
@@ -2676,7 +3622,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" ht="60">
+    <row r="60" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E60" s="7">
         <v>5</v>
       </c>
@@ -2692,7 +3638,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" ht="60">
+    <row r="61" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E61" s="7">
         <v>6</v>
       </c>
@@ -2705,7 +3651,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" ht="90">
+    <row r="62" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E62" s="7">
         <v>7</v>
       </c>
@@ -2718,7 +3664,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" ht="75">
+    <row r="63" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E63" s="7">
         <v>8</v>
       </c>
@@ -2734,7 +3680,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" ht="60">
+    <row r="64" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E64" s="7">
         <v>9</v>
       </c>
@@ -2750,7 +3696,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" ht="30">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E65" s="7">
         <v>10</v>
       </c>
@@ -2763,7 +3709,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" ht="90">
+    <row r="66" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E66" s="7">
         <v>11</v>
       </c>
@@ -2779,7 +3725,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" ht="165">
+    <row r="67" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="E67" s="7">
         <v>12</v>
       </c>
@@ -2792,12 +3738,12 @@
       <c r="K67" s="5"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="K68" s="5"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" ht="45">
+    <row r="69" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>24</v>
       </c>
@@ -2819,7 +3765,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" ht="30">
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E70" s="7">
         <v>2</v>
       </c>
@@ -2832,7 +3778,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" ht="45">
+    <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E71" s="7">
         <v>3</v>
       </c>
@@ -2845,7 +3791,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" ht="90">
+    <row r="72" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E72" s="7">
         <v>4</v>
       </c>
@@ -2861,7 +3807,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" ht="90">
+    <row r="73" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E73" s="7">
         <v>7</v>
       </c>
@@ -2874,7 +3820,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" ht="60">
+    <row r="74" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E74" s="7">
         <v>8</v>
       </c>
@@ -2890,7 +3836,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" ht="30">
+    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E75" s="7">
         <v>9</v>
       </c>
@@ -2903,7 +3849,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" ht="195">
+    <row r="76" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="E76" s="7">
         <v>10</v>
       </c>
@@ -2916,7 +3862,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" ht="30">
+    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E77" s="7">
         <v>6</v>
       </c>
@@ -2929,11 +3875,11 @@
       <c r="K77" s="5"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K78" s="5"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" ht="45">
+    <row r="79" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>25</v>
       </c>
@@ -2955,7 +3901,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12" ht="30">
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E80" s="7">
         <v>2</v>
       </c>
@@ -2969,7 +3915,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" ht="45">
+    <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E81" s="7">
         <v>3</v>
       </c>
@@ -2982,7 +3928,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" ht="30">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="7">
         <v>4</v>
       </c>
@@ -2995,7 +3941,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="75">
+    <row r="83" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E83" s="7">
         <v>5</v>
       </c>
@@ -3011,7 +3957,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" ht="60">
+    <row r="84" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E84" s="7">
         <v>6</v>
       </c>
@@ -3027,7 +3973,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" ht="90">
+    <row r="85" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E85" s="7">
         <v>7</v>
       </c>
@@ -3040,7 +3986,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" ht="60">
+    <row r="86" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E86" s="7">
         <v>8</v>
       </c>
@@ -3056,7 +4002,7 @@
       <c r="K86" s="5"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" ht="30">
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E87" s="7">
         <v>9</v>
       </c>
@@ -3069,7 +4015,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12" ht="30">
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E88" s="7">
         <v>10</v>
       </c>
@@ -3082,7 +4028,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" ht="105">
+    <row r="89" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="E89" s="7">
         <v>11</v>
       </c>
@@ -3098,7 +4044,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12" ht="30">
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E90" s="7">
         <v>12</v>
       </c>
@@ -3111,11 +4057,11 @@
       <c r="K90" s="5"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K91" s="5"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" ht="45">
+    <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>26</v>
       </c>
@@ -3137,7 +4083,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" ht="30">
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E93" s="7">
         <v>2</v>
       </c>
@@ -3151,7 +4097,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" ht="45">
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E94" s="7">
         <v>3</v>
       </c>
@@ -3164,7 +4110,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" ht="30">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E95" s="7">
         <v>4</v>
       </c>
@@ -3180,7 +4126,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" ht="75">
+    <row r="96" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E96" s="7">
         <v>5</v>
       </c>
@@ -3196,7 +4142,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12" ht="60">
+    <row r="97" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E97" s="7">
         <v>6</v>
       </c>
@@ -3212,7 +4158,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" ht="90">
+    <row r="98" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E98" s="7">
         <v>7</v>
       </c>
@@ -3225,7 +4171,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12" ht="60">
+    <row r="99" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E99" s="7">
         <v>8</v>
       </c>
@@ -3241,7 +4187,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="1:12" ht="30">
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E100" s="7">
         <v>9</v>
       </c>
@@ -3254,7 +4200,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12" ht="30">
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E101" s="7">
         <v>10</v>
       </c>
@@ -3267,7 +4213,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E102" s="7">
         <v>11</v>
       </c>
@@ -3280,15 +4226,15 @@
       <c r="K102" s="5"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K103" s="5"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K104" s="5"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" ht="60">
+    <row r="105" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>27</v>
       </c>
@@ -3310,7 +4256,7 @@
       <c r="K105" s="5"/>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="1:12" ht="30">
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E106" s="7">
         <v>2</v>
       </c>
@@ -3324,7 +4270,7 @@
       <c r="K106" s="5"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="1:12" ht="45">
+    <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E107" s="7">
         <v>3</v>
       </c>
@@ -3337,7 +4283,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="1:12" ht="30">
+    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E108" s="7">
         <v>4</v>
       </c>
@@ -3353,7 +4299,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="1:12" ht="75">
+    <row r="109" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E109" s="7">
         <v>5</v>
       </c>
@@ -3369,7 +4315,7 @@
       <c r="K109" s="5"/>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12" ht="60">
+    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E110" s="7">
         <v>6</v>
       </c>
@@ -3385,7 +4331,7 @@
       <c r="K110" s="5"/>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" ht="90">
+    <row r="111" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E111" s="7">
         <v>7</v>
       </c>
@@ -3398,7 +4344,7 @@
       <c r="K111" s="5"/>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="1:12" ht="60">
+    <row r="112" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E112" s="7">
         <v>8</v>
       </c>
@@ -3414,7 +4360,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:12" ht="30">
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E113" s="7">
         <v>9</v>
       </c>
@@ -3427,7 +4373,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="1:12" ht="30">
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E114" s="7">
         <v>10</v>
       </c>
@@ -3440,7 +4386,7 @@
       <c r="K114" s="5"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" ht="45">
+    <row r="115" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E115" s="7">
         <v>11</v>
       </c>
@@ -3456,7 +4402,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:12" ht="75">
+    <row r="116" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E116" s="7">
         <v>12</v>
       </c>
@@ -3472,7 +4418,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E117" s="7">
         <v>13</v>
       </c>
@@ -3482,11 +4428,11 @@
       <c r="K117" s="5"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K118" s="5"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="1:12" ht="60">
+    <row r="119" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>28</v>
       </c>
@@ -3508,7 +4454,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="1:12" ht="30">
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E120" s="7">
         <v>2</v>
       </c>
@@ -3522,7 +4468,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="1:12" ht="45">
+    <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E121" s="7">
         <v>3</v>
       </c>
@@ -3535,7 +4481,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12" ht="30">
+    <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E122" s="7">
         <v>4</v>
       </c>
@@ -3551,7 +4497,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="1:12" ht="75">
+    <row r="123" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E123" s="7">
         <v>5</v>
       </c>
@@ -3567,7 +4513,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12" ht="60">
+    <row r="124" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E124" s="7">
         <v>6</v>
       </c>
@@ -3583,7 +4529,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12" ht="90">
+    <row r="125" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E125" s="7">
         <v>7</v>
       </c>
@@ -3596,7 +4542,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="1:12" ht="60">
+    <row r="126" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E126" s="7">
         <v>8</v>
       </c>
@@ -3612,7 +4558,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="1:12" ht="30">
+    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E127" s="7">
         <v>9</v>
       </c>
@@ -3625,7 +4571,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="1:12" ht="30">
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E128" s="7">
         <v>10</v>
       </c>
@@ -3638,7 +4584,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12" ht="60">
+    <row r="129" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E129" s="7">
         <v>11</v>
       </c>
@@ -3654,7 +4600,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12" ht="75">
+    <row r="130" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E130" s="7">
         <v>12</v>
       </c>
@@ -3670,7 +4616,7 @@
       <c r="K130" s="5"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E131" s="7">
         <v>13</v>
       </c>
@@ -3680,11 +4626,11 @@
       <c r="K131" s="5"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K132" s="5"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:12" ht="45">
+    <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>29</v>
       </c>
@@ -3706,7 +4652,7 @@
       <c r="K133" s="5"/>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="1:12" ht="30">
+    <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="7">
         <v>2</v>
       </c>
@@ -3720,7 +4666,7 @@
       <c r="K134" s="5"/>
       <c r="L134" s="9"/>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E135" s="7">
         <v>3</v>
       </c>
@@ -3733,7 +4679,7 @@
       <c r="K135" s="5"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:12" ht="30">
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E136" s="7">
         <v>4</v>
       </c>
@@ -3749,7 +4695,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="9"/>
     </row>
-    <row r="137" spans="1:12" ht="75">
+    <row r="137" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E137" s="7">
         <v>5</v>
       </c>
@@ -3765,7 +4711,7 @@
       <c r="K137" s="5"/>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:12" ht="60">
+    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E138" s="7">
         <v>6</v>
       </c>
@@ -3781,7 +4727,7 @@
       <c r="K138" s="5"/>
       <c r="L138" s="9"/>
     </row>
-    <row r="139" spans="1:12" ht="90">
+    <row r="139" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E139" s="7">
         <v>7</v>
       </c>
@@ -3794,7 +4740,7 @@
       <c r="K139" s="5"/>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:12" ht="60">
+    <row r="140" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E140" s="7">
         <v>8</v>
       </c>
@@ -3810,7 +4756,7 @@
       <c r="K140" s="5"/>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:12" ht="30">
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E141" s="7">
         <v>9</v>
       </c>
@@ -3823,7 +4769,7 @@
       <c r="K141" s="5"/>
       <c r="L141" s="9"/>
     </row>
-    <row r="142" spans="1:12" ht="30">
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E142" s="7">
         <v>10</v>
       </c>
@@ -3836,7 +4782,7 @@
       <c r="K142" s="5"/>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:12" ht="120">
+    <row r="143" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E143" s="7">
         <v>11</v>
       </c>
@@ -3852,7 +4798,7 @@
       <c r="K143" s="5"/>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E144" s="7">
         <v>12</v>
       </c>
@@ -3862,11 +4808,11 @@
       <c r="K144" s="5"/>
       <c r="L144" s="9"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K145" s="5"/>
       <c r="L145" s="9"/>
     </row>
-    <row r="146" spans="1:12" ht="45">
+    <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +4834,7 @@
       <c r="K146" s="5"/>
       <c r="L146" s="9"/>
     </row>
-    <row r="147" spans="1:12" ht="30">
+    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E147" s="7">
         <v>2</v>
       </c>
@@ -3902,7 +4848,7 @@
       <c r="K147" s="5"/>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:12" ht="45">
+    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E148" s="7">
         <v>3</v>
       </c>
@@ -3915,7 +4861,7 @@
       <c r="K148" s="5"/>
       <c r="L148" s="9"/>
     </row>
-    <row r="149" spans="1:12" ht="30">
+    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E149" s="7">
         <v>4</v>
       </c>
@@ -3931,7 +4877,7 @@
       <c r="K149" s="5"/>
       <c r="L149" s="9"/>
     </row>
-    <row r="150" spans="1:12" ht="75">
+    <row r="150" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E150" s="7">
         <v>5</v>
       </c>
@@ -3947,7 +4893,7 @@
       <c r="K150" s="5"/>
       <c r="L150" s="9"/>
     </row>
-    <row r="151" spans="1:12" ht="60">
+    <row r="151" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E151" s="7">
         <v>6</v>
       </c>
@@ -3963,7 +4909,7 @@
       <c r="K151" s="5"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:12" ht="90">
+    <row r="152" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E152" s="7">
         <v>7</v>
       </c>
@@ -3976,7 +4922,7 @@
       <c r="K152" s="5"/>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12" ht="60">
+    <row r="153" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E153" s="7">
         <v>8</v>
       </c>
@@ -3992,7 +4938,7 @@
       <c r="K153" s="5"/>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12" ht="30">
+    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E154" s="7">
         <v>9</v>
       </c>
@@ -4005,7 +4951,7 @@
       <c r="K154" s="5"/>
       <c r="L154" s="9"/>
     </row>
-    <row r="155" spans="1:12" ht="30">
+    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E155" s="7">
         <v>10</v>
       </c>
@@ -4018,7 +4964,7 @@
       <c r="K155" s="5"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E156" s="7">
         <v>11</v>
       </c>
@@ -4031,7 +4977,7 @@
       <c r="K156" s="5"/>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12" ht="120">
+    <row r="157" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E157" s="7">
         <v>12</v>
       </c>
@@ -4047,7 +4993,7 @@
       <c r="K157" s="5"/>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E158" s="7">
         <v>13</v>
       </c>
@@ -4057,11 +5003,11 @@
       <c r="K158" s="5"/>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K159" s="5"/>
       <c r="L159" s="9"/>
     </row>
-    <row r="160" spans="1:12" ht="75">
+    <row r="160" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +5029,7 @@
       <c r="K160" s="5"/>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" ht="30">
+    <row r="161" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E161" s="7">
         <v>2</v>
       </c>
@@ -4097,7 +5043,7 @@
       <c r="K161" s="5"/>
       <c r="L161" s="9"/>
     </row>
-    <row r="162" spans="1:12" ht="45">
+    <row r="162" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E162" s="7">
         <v>3</v>
       </c>
@@ -4110,7 +5056,7 @@
       <c r="K162" s="5"/>
       <c r="L162" s="9"/>
     </row>
-    <row r="163" spans="1:12" ht="30">
+    <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E163" s="7">
         <v>4</v>
       </c>
@@ -4126,7 +5072,7 @@
       <c r="K163" s="5"/>
       <c r="L163" s="9"/>
     </row>
-    <row r="164" spans="1:12" ht="75">
+    <row r="164" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E164" s="7">
         <v>5</v>
       </c>
@@ -4142,7 +5088,7 @@
       <c r="K164" s="5"/>
       <c r="L164" s="9"/>
     </row>
-    <row r="165" spans="1:12" ht="60">
+    <row r="165" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E165" s="7">
         <v>6</v>
       </c>
@@ -4158,7 +5104,7 @@
       <c r="K165" s="5"/>
       <c r="L165" s="9"/>
     </row>
-    <row r="166" spans="1:12" ht="90">
+    <row r="166" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E166" s="7">
         <v>7</v>
       </c>
@@ -4171,7 +5117,7 @@
       <c r="K166" s="5"/>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12" ht="60">
+    <row r="167" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E167" s="7">
         <v>8</v>
       </c>
@@ -4187,7 +5133,7 @@
       <c r="K167" s="5"/>
       <c r="L167" s="9"/>
     </row>
-    <row r="168" spans="1:12" ht="30">
+    <row r="168" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E168" s="7">
         <v>9</v>
       </c>
@@ -4200,7 +5146,7 @@
       <c r="K168" s="5"/>
       <c r="L168" s="9"/>
     </row>
-    <row r="169" spans="1:12" ht="30">
+    <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E169" s="7">
         <v>10</v>
       </c>
@@ -4213,7 +5159,7 @@
       <c r="K169" s="5"/>
       <c r="L169" s="9"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E170" s="7">
         <v>11</v>
       </c>
@@ -4226,7 +5172,7 @@
       <c r="K170" s="5"/>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="1:12" ht="60">
+    <row r="171" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E171" s="7">
         <v>12</v>
       </c>
@@ -4242,7 +5188,7 @@
       <c r="K171" s="5"/>
       <c r="L171" s="9"/>
     </row>
-    <row r="172" spans="1:12" ht="75">
+    <row r="172" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E172" s="7">
         <v>13</v>
       </c>
@@ -4258,7 +5204,7 @@
       <c r="K172" s="5"/>
       <c r="L172" s="9"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E173" s="7">
         <v>14</v>
       </c>
@@ -4268,11 +5214,11 @@
       <c r="K173" s="5"/>
       <c r="L173" s="9"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K174" s="5"/>
       <c r="L174" s="9"/>
     </row>
-    <row r="175" spans="1:12" ht="60">
+    <row r="175" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>32</v>
       </c>
@@ -4294,7 +5240,7 @@
       <c r="K175" s="5"/>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="1:12" ht="30">
+    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E176" s="7">
         <v>2</v>
       </c>
@@ -4308,7 +5254,7 @@
       <c r="K176" s="5"/>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="1:12" ht="45">
+    <row r="177" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E177" s="7">
         <v>3</v>
       </c>
@@ -4321,7 +5267,7 @@
       <c r="K177" s="5"/>
       <c r="L177" s="9"/>
     </row>
-    <row r="178" spans="1:12" ht="30">
+    <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E178" s="7">
         <v>4</v>
       </c>
@@ -4337,7 +5283,7 @@
       <c r="K178" s="5"/>
       <c r="L178" s="9"/>
     </row>
-    <row r="179" spans="1:12" ht="75">
+    <row r="179" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E179" s="7">
         <v>5</v>
       </c>
@@ -4353,7 +5299,7 @@
       <c r="K179" s="5"/>
       <c r="L179" s="9"/>
     </row>
-    <row r="180" spans="1:12" ht="60">
+    <row r="180" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E180" s="7">
         <v>6</v>
       </c>
@@ -4369,7 +5315,7 @@
       <c r="K180" s="5"/>
       <c r="L180" s="9"/>
     </row>
-    <row r="181" spans="1:12" ht="90">
+    <row r="181" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E181" s="7">
         <v>7</v>
       </c>
@@ -4382,7 +5328,7 @@
       <c r="K181" s="5"/>
       <c r="L181" s="9"/>
     </row>
-    <row r="182" spans="1:12" ht="60">
+    <row r="182" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E182" s="7">
         <v>8</v>
       </c>
@@ -4398,7 +5344,7 @@
       <c r="K182" s="5"/>
       <c r="L182" s="9"/>
     </row>
-    <row r="183" spans="1:12" ht="30">
+    <row r="183" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E183" s="7">
         <v>9</v>
       </c>
@@ -4411,7 +5357,7 @@
       <c r="K183" s="5"/>
       <c r="L183" s="9"/>
     </row>
-    <row r="184" spans="1:12" ht="30">
+    <row r="184" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E184" s="7">
         <v>10</v>
       </c>
@@ -4424,7 +5370,7 @@
       <c r="K184" s="5"/>
       <c r="L184" s="9"/>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E185" s="7">
         <v>11</v>
       </c>
@@ -4437,7 +5383,7 @@
       <c r="K185" s="5"/>
       <c r="L185" s="9"/>
     </row>
-    <row r="186" spans="1:12" ht="120">
+    <row r="186" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E186" s="7">
         <v>12</v>
       </c>
@@ -4453,7 +5399,7 @@
       <c r="K186" s="5"/>
       <c r="L186" s="9"/>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E187" s="7">
         <v>13</v>
       </c>
@@ -4463,11 +5409,11 @@
       <c r="K187" s="5"/>
       <c r="L187" s="9"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K188" s="5"/>
       <c r="L188" s="9"/>
     </row>
-    <row r="189" spans="1:12" ht="75">
+    <row r="189" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>33</v>
       </c>
@@ -4489,7 +5435,7 @@
       <c r="K189" s="5"/>
       <c r="L189" s="9"/>
     </row>
-    <row r="190" spans="1:12" ht="30">
+    <row r="190" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E190" s="7">
         <v>2</v>
       </c>
@@ -4503,7 +5449,7 @@
       <c r="K190" s="5"/>
       <c r="L190" s="9"/>
     </row>
-    <row r="191" spans="1:12" ht="45">
+    <row r="191" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E191" s="7">
         <v>3</v>
       </c>
@@ -4516,7 +5462,7 @@
       <c r="K191" s="5"/>
       <c r="L191" s="9"/>
     </row>
-    <row r="192" spans="1:12" ht="30">
+    <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E192" s="7">
         <v>4</v>
       </c>
@@ -4532,7 +5478,7 @@
       <c r="K192" s="5"/>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12" ht="75">
+    <row r="193" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E193" s="7">
         <v>5</v>
       </c>
@@ -4548,7 +5494,7 @@
       <c r="K193" s="5"/>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12" ht="60">
+    <row r="194" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E194" s="7">
         <v>6</v>
       </c>
@@ -4564,7 +5510,7 @@
       <c r="K194" s="5"/>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12" ht="90">
+    <row r="195" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E195" s="7">
         <v>7</v>
       </c>
@@ -4577,7 +5523,7 @@
       <c r="K195" s="5"/>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12" ht="60">
+    <row r="196" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E196" s="7">
         <v>8</v>
       </c>
@@ -4593,7 +5539,7 @@
       <c r="K196" s="5"/>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12" ht="30">
+    <row r="197" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E197" s="7">
         <v>9</v>
       </c>
@@ -4606,7 +5552,7 @@
       <c r="K197" s="5"/>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12" ht="30">
+    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E198" s="7">
         <v>10</v>
       </c>
@@ -4619,7 +5565,7 @@
       <c r="K198" s="5"/>
       <c r="L198" s="9"/>
     </row>
-    <row r="199" spans="1:12" ht="120">
+    <row r="199" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E199" s="7">
         <v>11</v>
       </c>
@@ -4635,7 +5581,7 @@
       <c r="K199" s="5"/>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12" ht="75">
+    <row r="200" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E200" s="7">
         <v>12</v>
       </c>
@@ -4651,7 +5597,7 @@
       <c r="K200" s="5"/>
       <c r="L200" s="9"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E201" s="7">
         <v>13</v>
       </c>
@@ -4661,14 +5607,14 @@
       <c r="K201" s="5"/>
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K202" s="5"/>
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="1:12" ht="90">
+    <row r="203" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B203" s="19" t="s">
         <v>36</v>
       </c>
@@ -4687,7 +5633,7 @@
       <c r="K203" s="5"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12" ht="30">
+    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E204" s="7">
         <v>2</v>
       </c>
@@ -4701,7 +5647,7 @@
       <c r="K204" s="5"/>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12" ht="45">
+    <row r="205" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E205" s="7">
         <v>3</v>
       </c>
@@ -4714,7 +5660,7 @@
       <c r="K205" s="5"/>
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="1:12" ht="30">
+    <row r="206" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E206" s="7">
         <v>4</v>
       </c>
@@ -4730,7 +5676,7 @@
       <c r="K206" s="5"/>
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="1:12" ht="75">
+    <row r="207" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E207" s="7">
         <v>5</v>
       </c>
@@ -4746,7 +5692,7 @@
       <c r="K207" s="5"/>
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="1:12" ht="60">
+    <row r="208" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E208" s="7">
         <v>6</v>
       </c>
@@ -4762,7 +5708,7 @@
       <c r="K208" s="5"/>
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="1:12" ht="90">
+    <row r="209" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E209" s="7">
         <v>7</v>
       </c>
@@ -4775,7 +5721,7 @@
       <c r="K209" s="5"/>
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="1:12" ht="60">
+    <row r="210" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E210" s="7">
         <v>8</v>
       </c>
@@ -4791,7 +5737,7 @@
       <c r="K210" s="5"/>
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="1:12" ht="30">
+    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E211" s="7">
         <v>9</v>
       </c>
@@ -4804,7 +5750,7 @@
       <c r="K211" s="5"/>
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="1:12" ht="30">
+    <row r="212" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E212" s="7">
         <v>10</v>
       </c>
@@ -4817,7 +5763,7 @@
       <c r="K212" s="5"/>
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="1:12" ht="120">
+    <row r="213" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E213" s="7">
         <v>11</v>
       </c>
@@ -4833,7 +5779,7 @@
       <c r="K213" s="5"/>
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="1:12" ht="60">
+    <row r="214" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E214" s="7">
         <v>12</v>
       </c>
@@ -4849,7 +5795,7 @@
       <c r="K214" s="5"/>
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="1:12" ht="75">
+    <row r="215" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E215" s="7">
         <v>13</v>
       </c>
@@ -4865,7 +5811,7 @@
       <c r="K215" s="5"/>
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E216" s="7">
         <v>14</v>
       </c>
@@ -4875,11 +5821,11 @@
       <c r="K216" s="5"/>
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K217" s="5"/>
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="1:12" ht="45">
+    <row r="218" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>140</v>
       </c>
@@ -4901,7 +5847,7 @@
       <c r="K218" s="5"/>
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="1:12" ht="30">
+    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E219" s="7">
         <v>2</v>
       </c>
@@ -4915,7 +5861,7 @@
       <c r="K219" s="5"/>
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="1:12" ht="45">
+    <row r="220" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E220" s="7">
         <v>3</v>
       </c>
@@ -4928,7 +5874,7 @@
       <c r="K220" s="5"/>
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="1:12" ht="30">
+    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E221" s="7">
         <v>4</v>
       </c>
@@ -4944,7 +5890,7 @@
       <c r="K221" s="5"/>
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="1:12" ht="75">
+    <row r="222" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E222" s="7">
         <v>5</v>
       </c>
@@ -4960,7 +5906,7 @@
       <c r="K222" s="5"/>
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="1:12" ht="60">
+    <row r="223" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E223" s="7">
         <v>6</v>
       </c>
@@ -4976,7 +5922,7 @@
       <c r="K223" s="5"/>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="1:12" ht="90">
+    <row r="224" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E224" s="7">
         <v>7</v>
       </c>
@@ -4989,7 +5935,7 @@
       <c r="K224" s="5"/>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="1:12" ht="60">
+    <row r="225" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E225" s="7">
         <v>8</v>
       </c>
@@ -5005,7 +5951,7 @@
       <c r="K225" s="5"/>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="1:12" ht="30">
+    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E226" s="7">
         <v>9</v>
       </c>
@@ -5018,7 +5964,7 @@
       <c r="K226" s="5"/>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="1:12" ht="30">
+    <row r="227" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E227" s="7">
         <v>10</v>
       </c>
@@ -5031,7 +5977,7 @@
       <c r="K227" s="5"/>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="1:12" ht="135">
+    <row r="228" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E228" s="7">
         <v>11</v>
       </c>
@@ -5047,7 +5993,7 @@
       <c r="K228" s="5"/>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E229" s="7">
         <v>12</v>
       </c>
@@ -5057,11 +6003,11 @@
       <c r="K229" s="5"/>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K230" s="5"/>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="1:12" ht="45">
+    <row r="231" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>145</v>
       </c>
@@ -5083,7 +6029,7 @@
       <c r="K231" s="5"/>
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="1:12" ht="30">
+    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E232" s="7">
         <v>2</v>
       </c>
@@ -5097,7 +6043,7 @@
       <c r="K232" s="5"/>
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="1:12" ht="45">
+    <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E233" s="7">
         <v>3</v>
       </c>
@@ -5110,7 +6056,7 @@
       <c r="K233" s="5"/>
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="1:12" ht="30">
+    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E234" s="7">
         <v>4</v>
       </c>
@@ -5126,7 +6072,7 @@
       <c r="K234" s="5"/>
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="1:12" ht="75">
+    <row r="235" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E235" s="7">
         <v>5</v>
       </c>
@@ -5142,7 +6088,7 @@
       <c r="K235" s="5"/>
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="1:12" ht="60">
+    <row r="236" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E236" s="7">
         <v>6</v>
       </c>
@@ -5158,7 +6104,7 @@
       <c r="K236" s="5"/>
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="1:12" ht="90">
+    <row r="237" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E237" s="7">
         <v>7</v>
       </c>
@@ -5171,7 +6117,7 @@
       <c r="K237" s="5"/>
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="1:12" ht="60">
+    <row r="238" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E238" s="7">
         <v>8</v>
       </c>
@@ -5187,7 +6133,7 @@
       <c r="K238" s="5"/>
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="1:12" ht="30">
+    <row r="239" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E239" s="7">
         <v>9</v>
       </c>
@@ -5200,7 +6146,7 @@
       <c r="K239" s="5"/>
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="1:12" ht="30">
+    <row r="240" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E240" s="7">
         <v>10</v>
       </c>
@@ -5213,7 +6159,7 @@
       <c r="K240" s="5"/>
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="1:12" ht="135">
+    <row r="241" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E241" s="7">
         <v>11</v>
       </c>
@@ -5229,7 +6175,7 @@
       <c r="K241" s="5"/>
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="1:12" ht="45">
+    <row r="242" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E242" s="7">
         <v>12</v>
       </c>
@@ -5242,11 +6188,11 @@
       <c r="K242" s="5"/>
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K243" s="5"/>
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="1:12" ht="45">
+    <row r="244" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>148</v>
       </c>
@@ -5268,7 +6214,7 @@
       <c r="K244" s="5"/>
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="1:12" ht="30">
+    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E245" s="7">
         <v>2</v>
       </c>
@@ -5282,7 +6228,7 @@
       <c r="K245" s="5"/>
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="1:12" ht="45">
+    <row r="246" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E246" s="7">
         <v>3</v>
       </c>
@@ -5295,7 +6241,7 @@
       <c r="K246" s="5"/>
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="1:12" ht="30">
+    <row r="247" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E247" s="7">
         <v>4</v>
       </c>
@@ -5311,7 +6257,7 @@
       <c r="K247" s="5"/>
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="1:12" ht="75">
+    <row r="248" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E248" s="7">
         <v>5</v>
       </c>
@@ -5327,7 +6273,7 @@
       <c r="K248" s="5"/>
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="1:12" ht="60">
+    <row r="249" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E249" s="7">
         <v>6</v>
       </c>
@@ -5343,7 +6289,7 @@
       <c r="K249" s="5"/>
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="1:12" ht="90">
+    <row r="250" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E250" s="7">
         <v>7</v>
       </c>
@@ -5356,7 +6302,7 @@
       <c r="K250" s="5"/>
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="1:12" ht="60">
+    <row r="251" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E251" s="7">
         <v>8</v>
       </c>
@@ -5372,7 +6318,7 @@
       <c r="K251" s="5"/>
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="1:12" ht="30">
+    <row r="252" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E252" s="7">
         <v>9</v>
       </c>
@@ -5385,7 +6331,7 @@
       <c r="K252" s="5"/>
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="1:12" ht="30">
+    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E253" s="7">
         <v>10</v>
       </c>
@@ -5398,7 +6344,7 @@
       <c r="K253" s="5"/>
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="1:12" ht="135">
+    <row r="254" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E254" s="7">
         <v>11</v>
       </c>
@@ -5414,7 +6360,7 @@
       <c r="K254" s="5"/>
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E255" s="7">
         <v>12</v>
       </c>
@@ -5424,11 +6370,11 @@
       <c r="K255" s="5"/>
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K256" s="5"/>
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="1:12" ht="45">
+    <row r="257" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>150</v>
       </c>
@@ -5450,7 +6396,7 @@
       <c r="K257" s="5"/>
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="1:12" ht="30">
+    <row r="258" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E258" s="7">
         <v>2</v>
       </c>
@@ -5464,7 +6410,7 @@
       <c r="K258" s="5"/>
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="1:12" ht="45">
+    <row r="259" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E259" s="7">
         <v>3</v>
       </c>
@@ -5477,7 +6423,7 @@
       <c r="K259" s="5"/>
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="1:12" ht="30">
+    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E260" s="7">
         <v>4</v>
       </c>
@@ -5493,7 +6439,7 @@
       <c r="K260" s="5"/>
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="1:12" ht="75">
+    <row r="261" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E261" s="7">
         <v>5</v>
       </c>
@@ -5509,7 +6455,7 @@
       <c r="K261" s="5"/>
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="1:12" ht="60">
+    <row r="262" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E262" s="7">
         <v>6</v>
       </c>
@@ -5525,7 +6471,7 @@
       <c r="K262" s="5"/>
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="1:12" ht="90">
+    <row r="263" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E263" s="7">
         <v>7</v>
       </c>
@@ -5538,7 +6484,7 @@
       <c r="K263" s="5"/>
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="1:12" ht="60">
+    <row r="264" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E264" s="7">
         <v>8</v>
       </c>
@@ -5554,7 +6500,7 @@
       <c r="K264" s="5"/>
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="1:12" ht="30">
+    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E265" s="7">
         <v>9</v>
       </c>
@@ -5567,7 +6513,7 @@
       <c r="K265" s="5"/>
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="1:12" ht="30">
+    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E266" s="7">
         <v>10</v>
       </c>
@@ -5580,7 +6526,7 @@
       <c r="K266" s="5"/>
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="1:12" ht="135">
+    <row r="267" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E267" s="7">
         <v>11</v>
       </c>
@@ -5596,7 +6542,7 @@
       <c r="K267" s="5"/>
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="1:12" ht="45">
+    <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E268" s="7">
         <v>12</v>
       </c>
@@ -5609,11 +6555,11 @@
       <c r="K268" s="5"/>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K269" s="5"/>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="1:12" ht="45">
+    <row r="270" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>169</v>
       </c>
@@ -5635,7 +6581,7 @@
       <c r="K270" s="5"/>
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="1:12" ht="30">
+    <row r="271" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E271" s="7">
         <v>2</v>
       </c>
@@ -5649,7 +6595,7 @@
       <c r="K271" s="5"/>
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="1:12" ht="45">
+    <row r="272" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E272" s="7">
         <v>3</v>
       </c>
@@ -5662,7 +6608,7 @@
       <c r="K272" s="5"/>
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="1:12" ht="30">
+    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E273" s="7">
         <v>4</v>
       </c>
@@ -5678,7 +6624,7 @@
       <c r="K273" s="5"/>
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="1:12" ht="75">
+    <row r="274" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E274" s="7">
         <v>5</v>
       </c>
@@ -5694,7 +6640,7 @@
       <c r="K274" s="5"/>
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="1:12" ht="60">
+    <row r="275" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E275" s="7">
         <v>6</v>
       </c>
@@ -5710,7 +6656,7 @@
       <c r="K275" s="5"/>
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="1:12" ht="90">
+    <row r="276" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E276" s="7">
         <v>7</v>
       </c>
@@ -5723,7 +6669,7 @@
       <c r="K276" s="5"/>
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="1:12" ht="60">
+    <row r="277" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E277" s="7">
         <v>8</v>
       </c>
@@ -5739,7 +6685,7 @@
       <c r="K277" s="5"/>
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="1:12" ht="30">
+    <row r="278" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E278" s="7">
         <v>9</v>
       </c>
@@ -5752,7 +6698,7 @@
       <c r="K278" s="5"/>
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="1:12" ht="30">
+    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E279" s="7">
         <v>10</v>
       </c>
@@ -5765,7 +6711,7 @@
       <c r="K279" s="5"/>
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="1:12" ht="45">
+    <row r="280" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E280" s="7">
         <v>11</v>
       </c>
@@ -5781,7 +6727,7 @@
       <c r="K280" s="5"/>
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="1:12" ht="90">
+    <row r="281" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E281" s="7">
         <v>12</v>
       </c>
@@ -5797,7 +6743,7 @@
       <c r="K281" s="5"/>
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E282" s="7">
         <v>13</v>
       </c>
@@ -5807,11 +6753,11 @@
       <c r="K282" s="5"/>
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K283" s="5"/>
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="1:12" ht="45">
+    <row r="284" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>185</v>
       </c>
@@ -5830,7 +6776,7 @@
       <c r="K284" s="5"/>
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="1:12" ht="30">
+    <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E285" s="7">
         <v>2</v>
       </c>
@@ -5844,7 +6790,7 @@
       <c r="K285" s="5"/>
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="1:12" ht="45">
+    <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E286" s="7">
         <v>3</v>
       </c>
@@ -5857,7 +6803,7 @@
       <c r="K286" s="5"/>
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="1:12" ht="30">
+    <row r="287" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E287" s="7">
         <v>4</v>
       </c>
@@ -5873,7 +6819,7 @@
       <c r="K287" s="5"/>
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="1:12" ht="75">
+    <row r="288" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E288" s="7">
         <v>5</v>
       </c>
@@ -5889,7 +6835,7 @@
       <c r="K288" s="5"/>
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="1:12" ht="60">
+    <row r="289" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E289" s="7">
         <v>6</v>
       </c>
@@ -5905,7 +6851,7 @@
       <c r="K289" s="5"/>
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="1:12" ht="90">
+    <row r="290" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E290" s="7">
         <v>7</v>
       </c>
@@ -5918,7 +6864,7 @@
       <c r="K290" s="5"/>
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="1:12" ht="60">
+    <row r="291" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E291" s="7">
         <v>8</v>
       </c>
@@ -5934,7 +6880,7 @@
       <c r="K291" s="5"/>
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="1:12" ht="30">
+    <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E292" s="7">
         <v>9</v>
       </c>
@@ -5947,7 +6893,7 @@
       <c r="K292" s="5"/>
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="1:12" ht="30">
+    <row r="293" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E293" s="7">
         <v>10</v>
       </c>
@@ -5960,7 +6906,7 @@
       <c r="K293" s="5"/>
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="1:12" ht="45">
+    <row r="294" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E294" s="7">
         <v>11</v>
       </c>
@@ -5976,7 +6922,7 @@
       <c r="K294" s="5"/>
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="1:12" ht="90">
+    <row r="295" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E295" s="7">
         <v>12</v>
       </c>
@@ -5992,7 +6938,7 @@
       <c r="K295" s="5"/>
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="1:12" ht="45">
+    <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E296" s="7">
         <v>13</v>
       </c>
@@ -6005,11 +6951,11 @@
       <c r="K296" s="5"/>
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K297" s="5"/>
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="1:12" ht="45">
+    <row r="298" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>188</v>
       </c>
@@ -6028,7 +6974,7 @@
       <c r="K298" s="5"/>
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="1:12" ht="30">
+    <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E299" s="7">
         <v>1</v>
       </c>
@@ -6042,7 +6988,7 @@
       <c r="K299" s="5"/>
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="1:12" ht="45">
+    <row r="300" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E300" s="7">
         <v>2</v>
       </c>
@@ -6055,7 +7001,7 @@
       <c r="K300" s="5"/>
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="1:12" ht="30">
+    <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E301" s="7">
         <v>3</v>
       </c>
@@ -6071,7 +7017,7 @@
       <c r="K301" s="5"/>
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="1:12" ht="75">
+    <row r="302" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E302" s="7">
         <v>4</v>
       </c>
@@ -6087,7 +7033,7 @@
       <c r="K302" s="5"/>
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="1:12" ht="60">
+    <row r="303" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E303" s="7">
         <v>5</v>
       </c>
@@ -6103,7 +7049,7 @@
       <c r="K303" s="5"/>
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="1:12" ht="90">
+    <row r="304" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E304" s="7">
         <v>6</v>
       </c>
@@ -6116,7 +7062,7 @@
       <c r="K304" s="5"/>
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="1:12" ht="60">
+    <row r="305" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E305" s="7">
         <v>7</v>
       </c>
@@ -6132,7 +7078,7 @@
       <c r="K305" s="5"/>
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="1:12" ht="30">
+    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E306" s="7">
         <v>8</v>
       </c>
@@ -6145,7 +7091,7 @@
       <c r="K306" s="5"/>
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="1:12" ht="30">
+    <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E307" s="7">
         <v>9</v>
       </c>
@@ -6158,11 +7104,11 @@
       <c r="K307" s="5"/>
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K308" s="5"/>
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="1:12" ht="45">
+    <row r="309" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>195</v>
       </c>
@@ -6181,7 +7127,7 @@
       <c r="K309" s="5"/>
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="1:12" ht="30">
+    <row r="310" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E310" s="7">
         <v>1</v>
       </c>
@@ -6195,7 +7141,7 @@
       <c r="K310" s="5"/>
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="1:12" ht="45">
+    <row r="311" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E311" s="7">
         <v>2</v>
       </c>
@@ -6208,7 +7154,7 @@
       <c r="K311" s="5"/>
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="1:12" ht="30">
+    <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E312" s="7">
         <v>3</v>
       </c>
@@ -6224,7 +7170,7 @@
       <c r="K312" s="5"/>
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="1:12" ht="75">
+    <row r="313" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E313" s="7">
         <v>4</v>
       </c>
@@ -6240,7 +7186,7 @@
       <c r="K313" s="5"/>
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="1:12" ht="60">
+    <row r="314" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E314" s="7">
         <v>5</v>
       </c>
@@ -6256,7 +7202,7 @@
       <c r="K314" s="5"/>
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="1:12" ht="90">
+    <row r="315" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E315" s="7">
         <v>6</v>
       </c>
@@ -6269,7 +7215,7 @@
       <c r="K315" s="5"/>
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="1:12" ht="60">
+    <row r="316" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E316" s="7">
         <v>7</v>
       </c>
@@ -6285,7 +7231,7 @@
       <c r="K316" s="5"/>
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="1:12" ht="30">
+    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E317" s="7">
         <v>8</v>
       </c>
@@ -6298,7 +7244,7 @@
       <c r="K317" s="5"/>
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="1:12" ht="30">
+    <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E318" s="7">
         <v>9</v>
       </c>
@@ -6311,11 +7257,11 @@
       <c r="K318" s="5"/>
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K319" s="5"/>
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="1:12" ht="45">
+    <row r="320" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>215</v>
       </c>
@@ -6334,7 +7280,7 @@
       <c r="K320" s="5"/>
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="1:12" ht="30">
+    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E321" s="7">
         <v>1</v>
       </c>
@@ -6348,7 +7294,7 @@
       <c r="K321" s="5"/>
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="1:12" ht="45">
+    <row r="322" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E322" s="7">
         <v>2</v>
       </c>
@@ -6361,7 +7307,7 @@
       <c r="K322" s="5"/>
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="1:12" ht="30">
+    <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E323" s="7">
         <v>3</v>
       </c>
@@ -6377,7 +7323,7 @@
       <c r="K323" s="5"/>
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="1:12" ht="75">
+    <row r="324" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E324" s="7">
         <v>4</v>
       </c>
@@ -6393,7 +7339,7 @@
       <c r="K324" s="5"/>
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="1:12" ht="60">
+    <row r="325" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E325" s="7">
         <v>5</v>
       </c>
@@ -6409,7 +7355,7 @@
       <c r="K325" s="5"/>
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="1:12" ht="90">
+    <row r="326" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E326" s="7">
         <v>6</v>
       </c>
@@ -6422,7 +7368,7 @@
       <c r="K326" s="5"/>
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="1:12" ht="60">
+    <row r="327" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E327" s="7">
         <v>7</v>
       </c>
@@ -6438,7 +7384,7 @@
       <c r="K327" s="5"/>
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="1:12" ht="30">
+    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E328" s="7">
         <v>8</v>
       </c>
@@ -6451,7 +7397,7 @@
       <c r="K328" s="5"/>
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="1:12" ht="60">
+    <row r="329" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E329" s="7">
         <v>9</v>
       </c>
@@ -6464,7 +7410,7 @@
       <c r="K329" s="5"/>
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="1:12" ht="165">
+    <row r="330" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="E330" s="7">
         <v>10</v>
       </c>
@@ -6477,7 +7423,7 @@
       <c r="K330" s="5"/>
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="1:12" ht="60">
+    <row r="331" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E331" s="7">
         <v>11</v>
       </c>
@@ -6490,11 +7436,11 @@
       <c r="K331" s="5"/>
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K332" s="5"/>
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="1:12" ht="45">
+    <row r="333" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>217</v>
       </c>
@@ -6516,7 +7462,7 @@
       <c r="K333" s="5"/>
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="1:12" ht="30">
+    <row r="334" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E334" s="7">
         <v>2</v>
       </c>
@@ -6529,7 +7475,7 @@
       <c r="K334" s="5"/>
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="1:12" ht="45">
+    <row r="335" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E335" s="7">
         <v>3</v>
       </c>
@@ -6542,7 +7488,7 @@
       <c r="K335" s="5"/>
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="1:12" ht="75">
+    <row r="336" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E336" s="7">
         <v>4</v>
       </c>
@@ -6558,7 +7504,7 @@
       <c r="K336" s="5"/>
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="1:18" ht="60">
+    <row r="337" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="E337" s="7">
         <v>5</v>
       </c>
@@ -6574,7 +7520,7 @@
       <c r="K337" s="5"/>
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="1:18" ht="60">
+    <row r="338" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="E338" s="7">
         <v>6</v>
       </c>
@@ -6587,7 +7533,7 @@
       <c r="K338" s="5"/>
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="1:18" ht="90">
+    <row r="339" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="E339" s="7">
         <v>7</v>
       </c>
@@ -6603,7 +7549,7 @@
       <c r="K339" s="5"/>
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="1:18" ht="75">
+    <row r="340" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="E340" s="7">
         <v>8</v>
       </c>
@@ -6619,7 +7565,7 @@
       <c r="K340" s="5"/>
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="1:18" ht="60">
+    <row r="341" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="E341" s="7">
         <v>9</v>
       </c>
@@ -6635,7 +7581,7 @@
       <c r="K341" s="5"/>
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="1:18" ht="225">
+    <row r="342" spans="1:18" ht="225" x14ac:dyDescent="0.25">
       <c r="E342" s="7">
         <v>10</v>
       </c>
@@ -6648,7 +7594,7 @@
       <c r="K342" s="5"/>
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="1:18" ht="45">
+    <row r="343" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="E343" s="7">
         <v>9</v>
       </c>
@@ -6661,11 +7607,11 @@
       <c r="K343" s="5"/>
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="1:18">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K344" s="5"/>
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="1:18" ht="60">
+    <row r="345" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>223</v>
       </c>
@@ -6684,7 +7630,7 @@
       <c r="K345" s="5"/>
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="1:18" ht="30">
+    <row r="346" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D346" s="24"/>
       <c r="E346" s="7">
         <v>1</v>
@@ -6699,7 +7645,7 @@
       <c r="K346" s="5"/>
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="1:18" ht="30">
+    <row r="347" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B347" s="22"/>
       <c r="D347" s="24"/>
       <c r="E347" s="23">
@@ -6715,7 +7661,7 @@
       <c r="J347" s="5"/>
       <c r="K347" s="9"/>
     </row>
-    <row r="348" spans="1:18" ht="90">
+    <row r="348" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="B348" s="22"/>
       <c r="D348" s="24"/>
       <c r="E348" s="23">
@@ -6733,7 +7679,7 @@
       <c r="J348" s="5"/>
       <c r="K348" s="9"/>
     </row>
-    <row r="349" spans="1:18" s="10" customFormat="1" ht="25.5" customHeight="1">
+    <row r="349" spans="1:18" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7"/>
       <c r="B349" s="22"/>
       <c r="C349" s="5"/>
@@ -6757,7 +7703,7 @@
       <c r="Q349" s="13"/>
       <c r="R349" s="14"/>
     </row>
-    <row r="350" spans="1:18" s="10" customFormat="1" ht="45">
+    <row r="350" spans="1:18" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
       <c r="B350" s="22"/>
       <c r="C350" s="5"/>
@@ -6783,7 +7729,7 @@
       <c r="Q350" s="13"/>
       <c r="R350" s="14"/>
     </row>
-    <row r="351" spans="1:18" s="10" customFormat="1">
+    <row r="351" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
       <c r="B351" s="22"/>
       <c r="C351" s="5"/>
@@ -6801,7 +7747,7 @@
       <c r="Q351" s="11"/>
       <c r="R351" s="14"/>
     </row>
-    <row r="352" spans="1:18" ht="90">
+    <row r="352" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>229</v>
       </c>
@@ -6822,7 +7768,7 @@
       <c r="Q352" s="15"/>
       <c r="R352" s="14"/>
     </row>
-    <row r="353" spans="1:18" ht="30">
+    <row r="353" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B353" s="22"/>
       <c r="D353" s="24"/>
       <c r="E353" s="7">
@@ -6838,7 +7784,7 @@
       <c r="J353" s="5"/>
       <c r="K353" s="9"/>
     </row>
-    <row r="354" spans="1:18" ht="30">
+    <row r="354" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="22"/>
       <c r="D354" s="24"/>
       <c r="E354" s="23">
@@ -6854,7 +7800,7 @@
       <c r="J354" s="5"/>
       <c r="K354" s="9"/>
     </row>
-    <row r="355" spans="1:18" ht="30" customHeight="1">
+    <row r="355" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="22"/>
       <c r="D355" s="24"/>
       <c r="E355" s="23">
@@ -6872,7 +7818,7 @@
       <c r="J355" s="5"/>
       <c r="K355" s="9"/>
     </row>
-    <row r="356" spans="1:18" s="10" customFormat="1" ht="25.5" customHeight="1">
+    <row r="356" spans="1:18" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
       <c r="B356" s="22"/>
       <c r="C356" s="5"/>
@@ -6896,7 +7842,7 @@
       <c r="Q356" s="13"/>
       <c r="R356" s="14"/>
     </row>
-    <row r="357" spans="1:18" ht="135">
+    <row r="357" spans="1:18" ht="135" x14ac:dyDescent="0.25">
       <c r="E357" s="23">
         <v>5</v>
       </c>
@@ -6912,7 +7858,7 @@
       <c r="K357" s="5"/>
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="1:18" ht="60">
+    <row r="358" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="E358" s="23">
         <v>6</v>
       </c>
@@ -6925,7 +7871,7 @@
       <c r="K358" s="5"/>
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E359" s="23">
         <v>7</v>
       </c>
@@ -6936,11 +7882,11 @@
       <c r="K359" s="5"/>
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="1:18">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K360" s="5"/>
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="1:18" ht="60">
+    <row r="361" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>233</v>
       </c>
@@ -6953,13 +7899,13 @@
       <c r="F361" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H361" s="7" t="s">
+      <c r="I361" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K361" s="5"/>
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="1:18" ht="30">
+    <row r="362" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="E362" s="7">
         <v>1</v>
       </c>
@@ -6970,10 +7916,11 @@
         <v>43</v>
       </c>
       <c r="H362" s="20"/>
+      <c r="I362" s="20"/>
       <c r="K362" s="5"/>
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="1:18" ht="30">
+    <row r="363" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="E363" s="23">
         <v>2</v>
       </c>
@@ -6984,10 +7931,11 @@
         <v>205</v>
       </c>
       <c r="H363" s="6"/>
+      <c r="I363" s="6"/>
       <c r="K363" s="5"/>
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="1:18" ht="90">
+    <row r="364" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="E364" s="23">
         <v>3</v>
       </c>
@@ -6997,13 +7945,14 @@
       <c r="G364" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H364" s="6" t="s">
+      <c r="H364" s="6"/>
+      <c r="I364" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K364" s="5"/>
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="1:18" ht="300">
+    <row r="365" spans="1:18" ht="300" x14ac:dyDescent="0.25">
       <c r="E365" s="23">
         <v>4</v>
       </c>
@@ -7016,7 +7965,7 @@
       <c r="K365" s="5"/>
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="1:18" ht="120">
+    <row r="366" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="E366" s="23">
         <v>5</v>
       </c>
@@ -7029,7 +7978,7 @@
       <c r="K366" s="5"/>
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="1:18" ht="120">
+    <row r="367" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="E367" s="23">
         <v>6</v>
       </c>
@@ -7042,7 +7991,7 @@
       <c r="K367" s="5"/>
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="1:18" ht="60">
+    <row r="368" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="E368" s="23">
         <v>7</v>
       </c>
@@ -7055,7 +8004,7 @@
       <c r="K368" s="5"/>
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E369" s="23">
         <v>8</v>
       </c>
@@ -7066,11 +8015,11 @@
       <c r="K369" s="5"/>
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K370" s="5"/>
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="1:12" ht="75">
+    <row r="371" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>246</v>
       </c>
@@ -7083,13 +8032,13 @@
       <c r="F371" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H371" s="7" t="s">
+      <c r="I371" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K371" s="5"/>
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="1:12" ht="30">
+    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E372" s="7">
         <v>1</v>
       </c>
@@ -7100,10 +8049,11 @@
         <v>43</v>
       </c>
       <c r="H372" s="20"/>
+      <c r="I372" s="20"/>
       <c r="K372" s="5"/>
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="1:12" ht="30">
+    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E373" s="23">
         <v>2</v>
       </c>
@@ -7114,10 +8064,11 @@
         <v>205</v>
       </c>
       <c r="H373" s="6"/>
+      <c r="I373" s="6"/>
       <c r="K373" s="5"/>
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="1:12" ht="90">
+    <row r="374" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E374" s="23">
         <v>3</v>
       </c>
@@ -7127,13 +8078,14 @@
       <c r="G374" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H374" s="6" t="s">
+      <c r="H374" s="6"/>
+      <c r="I374" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K374" s="5"/>
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="1:12" ht="300">
+    <row r="375" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="E375" s="23">
         <v>4</v>
       </c>
@@ -7146,14 +8098,14 @@
       <c r="K375" s="5"/>
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E376" s="23"/>
       <c r="F376" s="24"/>
       <c r="G376" s="24"/>
       <c r="K376" s="5"/>
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="1:12" ht="135">
+    <row r="377" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E377" s="23">
         <v>5</v>
       </c>
@@ -7166,7 +8118,7 @@
       <c r="K377" s="5"/>
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="1:12" ht="60">
+    <row r="378" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E378" s="23">
         <v>6</v>
       </c>
@@ -7179,7 +8131,7 @@
       <c r="K378" s="5"/>
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E379" s="23">
         <v>7</v>
       </c>
@@ -7190,11 +8142,11 @@
       <c r="K379" s="5"/>
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K380" s="5"/>
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="1:12" ht="75">
+    <row r="381" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>256</v>
       </c>
@@ -7207,13 +8159,13 @@
       <c r="F381" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H381" s="7" t="s">
+      <c r="I381" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K381" s="5"/>
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="1:12" ht="30">
+    <row r="382" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E382" s="7">
         <v>1</v>
       </c>
@@ -7224,10 +8176,11 @@
         <v>43</v>
       </c>
       <c r="H382" s="20"/>
+      <c r="I382" s="20"/>
       <c r="K382" s="5"/>
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="1:12" ht="30">
+    <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E383" s="23">
         <v>2</v>
       </c>
@@ -7238,10 +8191,11 @@
         <v>205</v>
       </c>
       <c r="H383" s="6"/>
+      <c r="I383" s="6"/>
       <c r="K383" s="5"/>
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="1:12" ht="90">
+    <row r="384" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E384" s="23">
         <v>3</v>
       </c>
@@ -7251,13 +8205,14 @@
       <c r="G384" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H384" s="6" t="s">
+      <c r="H384" s="6"/>
+      <c r="I384" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K384" s="5"/>
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="1:12" ht="300">
+    <row r="385" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="E385" s="23">
         <v>4</v>
       </c>
@@ -7270,7 +8225,7 @@
       <c r="K385" s="5"/>
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="1:12" ht="135">
+    <row r="386" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E386" s="23">
         <v>5</v>
       </c>
@@ -7283,7 +8238,7 @@
       <c r="K386" s="5"/>
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="1:12" ht="60">
+    <row r="387" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E387" s="23">
         <v>6</v>
       </c>
@@ -7296,7 +8251,7 @@
       <c r="K387" s="5"/>
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E388" s="23">
         <v>7</v>
       </c>
@@ -7307,11 +8262,11 @@
       <c r="K388" s="5"/>
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K389" s="5"/>
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="1:12" ht="45">
+    <row r="390" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="7" t="s">
         <v>257</v>
       </c>
@@ -7324,13 +8279,13 @@
       <c r="F390" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H390" s="7" t="s">
+      <c r="I390" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K390" s="5"/>
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="1:12" ht="30">
+    <row r="391" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E391" s="7">
         <v>1</v>
       </c>
@@ -7341,10 +8296,11 @@
         <v>43</v>
       </c>
       <c r="H391" s="20"/>
+      <c r="I391" s="20"/>
       <c r="K391" s="5"/>
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="1:12" ht="30">
+    <row r="392" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E392" s="23">
         <v>2</v>
       </c>
@@ -7355,10 +8311,11 @@
         <v>205</v>
       </c>
       <c r="H392" s="6"/>
+      <c r="I392" s="6"/>
       <c r="K392" s="5"/>
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="1:12" ht="90">
+    <row r="393" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E393" s="23">
         <v>3</v>
       </c>
@@ -7368,13 +8325,14 @@
       <c r="G393" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H393" s="6" t="s">
+      <c r="H393" s="6"/>
+      <c r="I393" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K393" s="5"/>
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="1:12" ht="30">
+    <row r="394" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E394" s="23">
         <v>4</v>
       </c>
@@ -7387,7 +8345,7 @@
       <c r="K394" s="5"/>
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="1:12" ht="90">
+    <row r="395" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E395" s="23">
         <v>5</v>
       </c>
@@ -7400,7 +8358,7 @@
       <c r="K395" s="5"/>
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="1:12" ht="135">
+    <row r="396" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E396" s="23">
         <v>6</v>
       </c>
@@ -7413,7 +8371,7 @@
       <c r="K396" s="5"/>
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="1:12" ht="180">
+    <row r="397" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="E397" s="23">
         <v>7</v>
       </c>
@@ -7426,7 +8384,7 @@
       <c r="K397" s="5"/>
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="1:12" ht="180">
+    <row r="398" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="E398" s="23">
         <v>8</v>
       </c>
@@ -7439,11 +8397,11 @@
       <c r="K398" s="5"/>
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K399" s="5"/>
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="1:12" ht="45">
+    <row r="400" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>260</v>
       </c>
@@ -7456,13 +8414,13 @@
       <c r="F400" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H400" s="7" t="s">
+      <c r="I400" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K400" s="5"/>
       <c r="L400" s="9"/>
     </row>
-    <row r="401" spans="1:12" ht="30">
+    <row r="401" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E401" s="7">
         <v>1</v>
       </c>
@@ -7473,10 +8431,11 @@
         <v>43</v>
       </c>
       <c r="H401" s="20"/>
+      <c r="I401" s="20"/>
       <c r="K401" s="5"/>
       <c r="L401" s="9"/>
     </row>
-    <row r="402" spans="1:12" ht="30">
+    <row r="402" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E402" s="23">
         <v>2</v>
       </c>
@@ -7487,10 +8446,11 @@
         <v>205</v>
       </c>
       <c r="H402" s="6"/>
+      <c r="I402" s="6"/>
       <c r="K402" s="5"/>
       <c r="L402" s="9"/>
     </row>
-    <row r="403" spans="1:12" ht="90">
+    <row r="403" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E403" s="23">
         <v>3</v>
       </c>
@@ -7500,13 +8460,14 @@
       <c r="G403" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H403" s="6" t="s">
+      <c r="H403" s="6"/>
+      <c r="I403" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K403" s="5"/>
       <c r="L403" s="9"/>
     </row>
-    <row r="404" spans="1:12" ht="30">
+    <row r="404" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E404" s="23">
         <v>4</v>
       </c>
@@ -7519,7 +8480,7 @@
       <c r="K404" s="5"/>
       <c r="L404" s="9"/>
     </row>
-    <row r="405" spans="1:12" ht="135">
+    <row r="405" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E405" s="23">
         <v>5</v>
       </c>
@@ -7532,7 +8493,7 @@
       <c r="K405" s="5"/>
       <c r="L405" s="9"/>
     </row>
-    <row r="406" spans="1:12" ht="180">
+    <row r="406" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="E406" s="23">
         <v>6</v>
       </c>
@@ -7545,7 +8506,7 @@
       <c r="K406" s="5"/>
       <c r="L406" s="9"/>
     </row>
-    <row r="407" spans="1:12" ht="45">
+    <row r="407" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E407" s="23">
         <v>7</v>
       </c>
@@ -7558,7 +8519,7 @@
       <c r="K407" s="5"/>
       <c r="L407" s="9"/>
     </row>
-    <row r="408" spans="1:12" ht="60">
+    <row r="408" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E408" s="23">
         <v>8</v>
       </c>
@@ -7571,7 +8532,7 @@
       <c r="K408" s="5"/>
       <c r="L408" s="9"/>
     </row>
-    <row r="409" spans="1:12" ht="30">
+    <row r="409" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E409" s="23">
         <v>9</v>
       </c>
@@ -7582,11 +8543,11 @@
       <c r="K409" s="5"/>
       <c r="L409" s="9"/>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K410" s="5"/>
       <c r="L410" s="9"/>
     </row>
-    <row r="411" spans="1:12" ht="90">
+    <row r="411" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>264</v>
       </c>
@@ -7599,13 +8560,13 @@
       <c r="F411" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H411" s="7" t="s">
+      <c r="I411" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K411" s="5"/>
       <c r="L411" s="9"/>
     </row>
-    <row r="412" spans="1:12" ht="30">
+    <row r="412" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E412" s="7">
         <v>1</v>
       </c>
@@ -7616,10 +8577,11 @@
         <v>43</v>
       </c>
       <c r="H412" s="20"/>
+      <c r="I412" s="20"/>
       <c r="K412" s="5"/>
       <c r="L412" s="9"/>
     </row>
-    <row r="413" spans="1:12" ht="30">
+    <row r="413" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E413" s="23">
         <v>2</v>
       </c>
@@ -7630,10 +8592,11 @@
         <v>205</v>
       </c>
       <c r="H413" s="6"/>
+      <c r="I413" s="6"/>
       <c r="K413" s="5"/>
       <c r="L413" s="9"/>
     </row>
-    <row r="414" spans="1:12" ht="90">
+    <row r="414" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E414" s="23">
         <v>3</v>
       </c>
@@ -7643,13 +8606,14 @@
       <c r="G414" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H414" s="6" t="s">
+      <c r="H414" s="6"/>
+      <c r="I414" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K414" s="5"/>
       <c r="L414" s="9"/>
     </row>
-    <row r="415" spans="1:12" ht="120">
+    <row r="415" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E415" s="23">
         <v>5</v>
       </c>
@@ -7662,7 +8626,7 @@
       <c r="K415" s="5"/>
       <c r="L415" s="9"/>
     </row>
-    <row r="416" spans="1:12" ht="135">
+    <row r="416" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="E416" s="23">
         <v>6</v>
       </c>
@@ -7675,7 +8639,7 @@
       <c r="K416" s="5"/>
       <c r="L416" s="9"/>
     </row>
-    <row r="417" spans="1:12" ht="60">
+    <row r="417" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E417" s="23">
         <v>7</v>
       </c>
@@ -7688,7 +8652,7 @@
       <c r="K417" s="5"/>
       <c r="L417" s="9"/>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E418" s="23">
         <v>8</v>
       </c>
@@ -7699,11 +8663,11 @@
       <c r="K418" s="5"/>
       <c r="L418" s="9"/>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K419" s="5"/>
       <c r="L419" s="9"/>
     </row>
-    <row r="420" spans="1:12" ht="45">
+    <row r="420" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>267</v>
       </c>
@@ -7716,13 +8680,13 @@
       <c r="F420" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H420" s="7" t="s">
+      <c r="I420" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K420" s="5"/>
       <c r="L420" s="9"/>
     </row>
-    <row r="421" spans="1:12" ht="30">
+    <row r="421" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E421" s="7">
         <v>1</v>
       </c>
@@ -7733,10 +8697,11 @@
         <v>43</v>
       </c>
       <c r="H421" s="20"/>
+      <c r="I421" s="20"/>
       <c r="K421" s="5"/>
       <c r="L421" s="9"/>
     </row>
-    <row r="422" spans="1:12" ht="30">
+    <row r="422" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E422" s="23">
         <v>2</v>
       </c>
@@ -7747,10 +8712,11 @@
         <v>205</v>
       </c>
       <c r="H422" s="6"/>
+      <c r="I422" s="6"/>
       <c r="K422" s="5"/>
       <c r="L422" s="9"/>
     </row>
-    <row r="423" spans="1:12" ht="90">
+    <row r="423" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E423" s="23">
         <v>3</v>
       </c>
@@ -7760,13 +8726,14 @@
       <c r="G423" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H423" s="6" t="s">
+      <c r="H423" s="6"/>
+      <c r="I423" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K423" s="5"/>
       <c r="L423" s="9"/>
     </row>
-    <row r="424" spans="1:12" ht="120">
+    <row r="424" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E424" s="23">
         <v>5</v>
       </c>
@@ -7779,7 +8746,7 @@
       <c r="K424" s="5"/>
       <c r="L424" s="9"/>
     </row>
-    <row r="425" spans="1:12" ht="120">
+    <row r="425" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E425" s="23">
         <v>6</v>
       </c>
@@ -7792,7 +8759,7 @@
       <c r="K425" s="5"/>
       <c r="L425" s="9"/>
     </row>
-    <row r="426" spans="1:12" ht="45">
+    <row r="426" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E426" s="23">
         <v>7</v>
       </c>
@@ -7805,7 +8772,7 @@
       <c r="K426" s="5"/>
       <c r="L426" s="9"/>
     </row>
-    <row r="427" spans="1:12" ht="60">
+    <row r="427" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E427" s="23">
         <v>8</v>
       </c>
@@ -7818,11 +8785,11 @@
       <c r="K427" s="5"/>
       <c r="L427" s="9"/>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K428" s="5"/>
       <c r="L428" s="9"/>
     </row>
-    <row r="429" spans="1:12" ht="45">
+    <row r="429" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>268</v>
       </c>
@@ -7835,13 +8802,13 @@
       <c r="F429" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H429" s="7" t="s">
+      <c r="I429" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K429" s="5"/>
       <c r="L429" s="9"/>
     </row>
-    <row r="430" spans="1:12" ht="30">
+    <row r="430" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E430" s="7">
         <v>1</v>
       </c>
@@ -7852,10 +8819,11 @@
         <v>43</v>
       </c>
       <c r="H430" s="20"/>
+      <c r="I430" s="20"/>
       <c r="K430" s="5"/>
       <c r="L430" s="9"/>
     </row>
-    <row r="431" spans="1:12" ht="30">
+    <row r="431" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E431" s="23">
         <v>2</v>
       </c>
@@ -7866,10 +8834,11 @@
         <v>205</v>
       </c>
       <c r="H431" s="6"/>
+      <c r="I431" s="6"/>
       <c r="K431" s="5"/>
       <c r="L431" s="9"/>
     </row>
-    <row r="432" spans="1:12" ht="90">
+    <row r="432" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E432" s="23">
         <v>3</v>
       </c>
@@ -7879,13 +8848,14 @@
       <c r="G432" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H432" s="6" t="s">
+      <c r="H432" s="6"/>
+      <c r="I432" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K432" s="5"/>
       <c r="L432" s="9"/>
     </row>
-    <row r="433" spans="1:12" ht="120">
+    <row r="433" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E433" s="23">
         <v>5</v>
       </c>
@@ -7898,7 +8868,7 @@
       <c r="K433" s="5"/>
       <c r="L433" s="9"/>
     </row>
-    <row r="434" spans="1:12" ht="120">
+    <row r="434" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E434" s="23">
         <v>6</v>
       </c>
@@ -7911,7 +8881,7 @@
       <c r="K434" s="5"/>
       <c r="L434" s="9"/>
     </row>
-    <row r="435" spans="1:12" ht="30">
+    <row r="435" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E435" s="23">
         <v>7</v>
       </c>
@@ -7924,11 +8894,11 @@
       <c r="K435" s="5"/>
       <c r="L435" s="9"/>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K436" s="5"/>
       <c r="L436" s="9"/>
     </row>
-    <row r="437" spans="1:12" ht="45">
+    <row r="437" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>269</v>
       </c>
@@ -7941,13 +8911,13 @@
       <c r="F437" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H437" s="7" t="s">
+      <c r="I437" s="7" t="s">
         <v>63</v>
       </c>
       <c r="K437" s="5"/>
       <c r="L437" s="9"/>
     </row>
-    <row r="438" spans="1:12" ht="30">
+    <row r="438" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E438" s="7">
         <v>1</v>
       </c>
@@ -7958,10 +8928,11 @@
         <v>43</v>
       </c>
       <c r="H438" s="20"/>
+      <c r="I438" s="20"/>
       <c r="K438" s="5"/>
       <c r="L438" s="9"/>
     </row>
-    <row r="439" spans="1:12" ht="30">
+    <row r="439" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E439" s="23">
         <v>2</v>
       </c>
@@ -7972,10 +8943,11 @@
         <v>205</v>
       </c>
       <c r="H439" s="6"/>
+      <c r="I439" s="6"/>
       <c r="K439" s="5"/>
       <c r="L439" s="9"/>
     </row>
-    <row r="440" spans="1:12" ht="90">
+    <row r="440" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E440" s="23">
         <v>3</v>
       </c>
@@ -7985,13 +8957,14 @@
       <c r="G440" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="H440" s="6" t="s">
+      <c r="H440" s="6"/>
+      <c r="I440" s="6" t="s">
         <v>208</v>
       </c>
       <c r="K440" s="5"/>
       <c r="L440" s="9"/>
     </row>
-    <row r="441" spans="1:12" ht="120">
+    <row r="441" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="E441" s="23">
         <v>4</v>
       </c>
@@ -8004,7 +8977,7 @@
       <c r="K441" s="5"/>
       <c r="L441" s="9"/>
     </row>
-    <row r="442" spans="1:12" ht="45">
+    <row r="442" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E442" s="23">
         <v>5</v>
       </c>
@@ -8017,7 +8990,7 @@
       <c r="K442" s="5"/>
       <c r="L442" s="9"/>
     </row>
-    <row r="443" spans="1:12" ht="60">
+    <row r="443" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E443" s="23">
         <v>6</v>
       </c>
@@ -8030,1121 +9003,3221 @@
       <c r="K443" s="5"/>
       <c r="L443" s="9"/>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K444" s="5"/>
       <c r="L444" s="9"/>
     </row>
-    <row r="445" spans="1:12">
-      <c r="B445" s="19"/>
+    <row r="445" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B445" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D445" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F445" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I445" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K445" s="5"/>
       <c r="L445" s="9"/>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E446" s="7">
+        <v>1</v>
+      </c>
+      <c r="F446" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G446" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H446" s="20"/>
+      <c r="I446" s="20"/>
       <c r="K446" s="5"/>
       <c r="L446" s="9"/>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E447" s="23">
+        <v>2</v>
+      </c>
+      <c r="F447" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G447" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H447" s="6"/>
+      <c r="I447" s="6"/>
       <c r="K447" s="5"/>
       <c r="L447" s="9"/>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E448" s="23">
+        <v>3</v>
+      </c>
+      <c r="F448" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G448" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H448" s="6"/>
+      <c r="I448" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="K448" s="5"/>
       <c r="L448" s="9"/>
     </row>
-    <row r="449" spans="11:12">
+    <row r="449" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E449" s="23">
+        <v>4</v>
+      </c>
+      <c r="F449" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G449" s="24" t="s">
+        <v>272</v>
+      </c>
       <c r="K449" s="5"/>
       <c r="L449" s="9"/>
     </row>
-    <row r="450" spans="11:12">
+    <row r="450" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E450" s="23">
+        <v>5</v>
+      </c>
+      <c r="F450" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G450" s="24" t="s">
+        <v>274</v>
+      </c>
       <c r="K450" s="5"/>
       <c r="L450" s="9"/>
     </row>
-    <row r="451" spans="11:12">
+    <row r="451" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E451" s="23">
+        <v>6</v>
+      </c>
+      <c r="F451" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G451" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K451" s="5"/>
       <c r="L451" s="9"/>
     </row>
-    <row r="452" spans="11:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K452" s="5"/>
       <c r="L452" s="9"/>
     </row>
-    <row r="453" spans="11:12">
+    <row r="453" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B453" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D453" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F453" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I453" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K453" s="5"/>
       <c r="L453" s="9"/>
     </row>
-    <row r="454" spans="11:12">
+    <row r="454" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E454" s="7">
+        <v>1</v>
+      </c>
+      <c r="F454" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G454" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H454" s="20"/>
+      <c r="I454" s="20"/>
       <c r="K454" s="5"/>
       <c r="L454" s="9"/>
     </row>
-    <row r="455" spans="11:12">
+    <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E455" s="23">
+        <v>2</v>
+      </c>
+      <c r="F455" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G455" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H455" s="6"/>
+      <c r="I455" s="6"/>
       <c r="K455" s="5"/>
       <c r="L455" s="9"/>
     </row>
-    <row r="456" spans="11:12">
+    <row r="456" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E456" s="23">
+        <v>3</v>
+      </c>
+      <c r="F456" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G456" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H456" s="6"/>
+      <c r="I456" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="K456" s="5"/>
       <c r="L456" s="9"/>
     </row>
-    <row r="457" spans="11:12">
+    <row r="457" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E457" s="23">
+        <v>4</v>
+      </c>
+      <c r="F457" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="G457" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="I457" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="K457" s="5"/>
       <c r="L457" s="9"/>
     </row>
-    <row r="458" spans="11:12">
+    <row r="458" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E458" s="23">
+        <v>5</v>
+      </c>
+      <c r="F458" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G458" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K458" s="5"/>
       <c r="L458" s="9"/>
     </row>
-    <row r="459" spans="11:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K459" s="5"/>
       <c r="L459" s="9"/>
     </row>
-    <row r="460" spans="11:12">
+    <row r="460" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A460" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D460" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F460" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I460" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K460" s="5"/>
       <c r="L460" s="9"/>
     </row>
-    <row r="461" spans="11:12">
+    <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E461" s="7">
+        <v>1</v>
+      </c>
+      <c r="F461" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G461" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H461" s="20"/>
+      <c r="I461" s="20"/>
       <c r="K461" s="5"/>
       <c r="L461" s="9"/>
     </row>
-    <row r="462" spans="11:12">
+    <row r="462" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E462" s="23">
+        <v>2</v>
+      </c>
+      <c r="F462" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G462" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H462" s="6"/>
+      <c r="I462" s="6"/>
       <c r="K462" s="5"/>
       <c r="L462" s="9"/>
     </row>
-    <row r="463" spans="11:12">
+    <row r="463" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E463" s="23">
+        <v>3</v>
+      </c>
+      <c r="F463" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G463" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H463" s="6"/>
+      <c r="I463" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="K463" s="5"/>
       <c r="L463" s="9"/>
     </row>
-    <row r="464" spans="11:12">
+    <row r="464" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E464" s="23">
+        <v>4</v>
+      </c>
+      <c r="F464" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G464" s="23" t="s">
+        <v>282</v>
+      </c>
       <c r="K464" s="5"/>
       <c r="L464" s="9"/>
     </row>
-    <row r="465" spans="11:12">
+    <row r="465" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E465" s="23">
+        <v>5</v>
+      </c>
+      <c r="F465" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G465" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K465" s="5"/>
       <c r="L465" s="9"/>
     </row>
-    <row r="466" spans="11:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K466" s="5"/>
       <c r="L466" s="9"/>
     </row>
-    <row r="467" spans="11:12">
+    <row r="467" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A467" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B467" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D467" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="F467" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I467" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K467" s="5"/>
       <c r="L467" s="9"/>
     </row>
-    <row r="468" spans="11:12">
+    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E468" s="7">
+        <v>1</v>
+      </c>
+      <c r="F468" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G468" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H468" s="20"/>
+      <c r="I468" s="20"/>
       <c r="K468" s="5"/>
       <c r="L468" s="9"/>
     </row>
-    <row r="469" spans="11:12">
+    <row r="469" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E469" s="23">
+        <v>2</v>
+      </c>
+      <c r="F469" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G469" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H469" s="6"/>
+      <c r="I469" s="6"/>
       <c r="K469" s="5"/>
       <c r="L469" s="9"/>
     </row>
-    <row r="470" spans="11:12">
+    <row r="470" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E470" s="23">
+        <v>3</v>
+      </c>
+      <c r="F470" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G470" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H470" s="6"/>
+      <c r="I470" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="K470" s="5"/>
       <c r="L470" s="9"/>
     </row>
-    <row r="471" spans="11:12">
+    <row r="471" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E471" s="23">
+        <v>4</v>
+      </c>
+      <c r="F471" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G471" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="I471" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="K471" s="5"/>
       <c r="L471" s="9"/>
     </row>
-    <row r="472" spans="11:12">
+    <row r="472" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E472" s="23">
+        <v>5</v>
+      </c>
+      <c r="F472" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G472" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K472" s="5"/>
       <c r="L472" s="9"/>
     </row>
-    <row r="473" spans="11:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K473" s="5"/>
       <c r="L473" s="9"/>
     </row>
-    <row r="474" spans="11:12">
+    <row r="474" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A474" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B474" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D474" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F474" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I474" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K474" s="5"/>
       <c r="L474" s="9"/>
     </row>
-    <row r="475" spans="11:12">
+    <row r="475" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E475" s="7">
+        <v>1</v>
+      </c>
+      <c r="F475" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G475" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H475" s="20"/>
+      <c r="I475" s="20"/>
       <c r="K475" s="5"/>
       <c r="L475" s="9"/>
     </row>
-    <row r="476" spans="11:12">
+    <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E476" s="23">
+        <v>2</v>
+      </c>
+      <c r="F476" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G476" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H476" s="6"/>
+      <c r="I476" s="6"/>
       <c r="K476" s="5"/>
       <c r="L476" s="9"/>
     </row>
-    <row r="477" spans="11:12">
+    <row r="477" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E477" s="23">
+        <v>3</v>
+      </c>
+      <c r="F477" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G477" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H477" s="6"/>
+      <c r="I477" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="K477" s="5"/>
       <c r="L477" s="9"/>
     </row>
-    <row r="478" spans="11:12">
+    <row r="478" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E478" s="23">
+        <v>4</v>
+      </c>
+      <c r="F478" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G478" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I478" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="K478" s="5"/>
       <c r="L478" s="9"/>
     </row>
-    <row r="479" spans="11:12">
+    <row r="479" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E479" s="23">
+        <v>5</v>
+      </c>
+      <c r="F479" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G479" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K479" s="5"/>
       <c r="L479" s="9"/>
     </row>
-    <row r="480" spans="11:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K480" s="5"/>
       <c r="L480" s="9"/>
     </row>
-    <row r="481" spans="11:12">
+    <row r="481" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A481" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B481" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D481" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F481" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I481" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K481" s="5"/>
       <c r="L481" s="9"/>
     </row>
-    <row r="482" spans="11:12">
+    <row r="482" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E482" s="7">
+        <v>1</v>
+      </c>
+      <c r="F482" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G482" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H482" s="20"/>
+      <c r="I482" s="20"/>
       <c r="K482" s="5"/>
       <c r="L482" s="9"/>
     </row>
-    <row r="483" spans="11:12">
+    <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E483" s="23">
+        <v>2</v>
+      </c>
+      <c r="F483" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G483" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H483" s="6"/>
+      <c r="I483" s="6"/>
       <c r="K483" s="5"/>
       <c r="L483" s="9"/>
     </row>
-    <row r="484" spans="11:12">
+    <row r="484" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E484" s="23">
+        <v>3</v>
+      </c>
+      <c r="F484" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G484" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H484" s="6"/>
+      <c r="I484" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="K484" s="5"/>
       <c r="L484" s="9"/>
     </row>
-    <row r="485" spans="11:12">
+    <row r="485" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E485" s="23">
+        <v>4</v>
+      </c>
+      <c r="F485" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="G485" s="24" t="s">
+        <v>296</v>
+      </c>
       <c r="K485" s="5"/>
       <c r="L485" s="9"/>
     </row>
-    <row r="486" spans="11:12">
+    <row r="486" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E486" s="23">
+        <v>5</v>
+      </c>
+      <c r="F486" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G486" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K486" s="9"/>
       <c r="L486" s="9"/>
     </row>
-    <row r="487" spans="11:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K487" s="9"/>
       <c r="L487" s="9"/>
     </row>
-    <row r="488" spans="11:12">
+    <row r="488" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A488" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B488" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D488" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F488" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I488" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K488" s="9"/>
       <c r="L488" s="9"/>
     </row>
-    <row r="489" spans="11:12">
+    <row r="489" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E489" s="7">
+        <v>1</v>
+      </c>
+      <c r="F489" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G489" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H489" s="20"/>
+      <c r="I489" s="20"/>
       <c r="K489" s="9"/>
       <c r="L489" s="9"/>
     </row>
-    <row r="490" spans="11:12">
+    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E490" s="23">
+        <v>2</v>
+      </c>
+      <c r="F490" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G490" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H490" s="6"/>
+      <c r="I490" s="6"/>
       <c r="K490" s="9"/>
       <c r="L490" s="9"/>
     </row>
-    <row r="491" spans="11:12">
+    <row r="491" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E491" s="23">
+        <v>3</v>
+      </c>
+      <c r="F491" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G491" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H491" s="6"/>
+      <c r="I491" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="K491" s="9"/>
       <c r="L491" s="9"/>
     </row>
-    <row r="492" spans="11:12">
+    <row r="492" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E492" s="23">
+        <v>4</v>
+      </c>
+      <c r="F492" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="G492" s="24" t="s">
+        <v>299</v>
+      </c>
       <c r="K492" s="9"/>
       <c r="L492" s="9"/>
     </row>
-    <row r="493" spans="11:12">
+    <row r="493" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E493" s="23">
+        <v>5</v>
+      </c>
+      <c r="F493" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="G493" s="24" t="s">
+        <v>213</v>
+      </c>
       <c r="K493" s="9"/>
       <c r="L493" s="9"/>
     </row>
-    <row r="494" spans="11:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K494" s="9"/>
       <c r="L494" s="9"/>
     </row>
-    <row r="495" spans="11:12">
+    <row r="495" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A495" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B495" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D495" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I495" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K495" s="9"/>
       <c r="L495" s="9"/>
     </row>
-    <row r="496" spans="11:12">
+    <row r="496" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E496" s="7">
+        <v>1</v>
+      </c>
+      <c r="F496" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H496" s="20"/>
+      <c r="I496" s="20"/>
       <c r="K496" s="9"/>
       <c r="L496" s="9"/>
     </row>
-    <row r="497" spans="11:12">
+    <row r="497" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E497" s="23">
+        <v>2</v>
+      </c>
+      <c r="F497" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G497" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H497" s="6"/>
+      <c r="I497" s="6"/>
       <c r="K497" s="9"/>
       <c r="L497" s="9"/>
     </row>
-    <row r="498" spans="11:12">
+    <row r="498" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E498" s="23">
+        <v>3</v>
+      </c>
+      <c r="F498" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G498" s="24" t="s">
+        <v>310</v>
+      </c>
       <c r="K498" s="9"/>
       <c r="L498" s="9"/>
     </row>
-    <row r="499" spans="11:12">
+    <row r="499" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="E499" s="23">
+        <v>4</v>
+      </c>
+      <c r="F499" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="G499" s="24" t="s">
+        <v>304</v>
+      </c>
       <c r="K499" s="9"/>
       <c r="L499" s="9"/>
     </row>
-    <row r="500" spans="11:12">
+    <row r="500" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="E500" s="23">
+        <v>5</v>
+      </c>
+      <c r="F500" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G500" s="24" t="s">
+        <v>306</v>
+      </c>
       <c r="K500" s="9"/>
       <c r="L500" s="9"/>
     </row>
-    <row r="501" spans="11:12">
+    <row r="501" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E501" s="23">
+        <v>6</v>
+      </c>
+      <c r="F501" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G501" s="24" t="s">
+        <v>308</v>
+      </c>
       <c r="K501" s="9"/>
       <c r="L501" s="9"/>
     </row>
-    <row r="502" spans="11:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K502" s="9"/>
       <c r="L502" s="9"/>
     </row>
-    <row r="503" spans="11:12">
+    <row r="503" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A503" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B503" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D503" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F503" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I503" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K503" s="9"/>
       <c r="L503" s="9"/>
     </row>
-    <row r="504" spans="11:12">
+    <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E504" s="7">
+        <v>1</v>
+      </c>
+      <c r="F504" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G504" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H504" s="20"/>
+      <c r="I504" s="20"/>
       <c r="K504" s="9"/>
       <c r="L504" s="9"/>
     </row>
-    <row r="505" spans="11:12">
+    <row r="505" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E505" s="23">
+        <v>2</v>
+      </c>
+      <c r="F505" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G505" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H505" s="6"/>
+      <c r="I505" s="6"/>
       <c r="K505" s="9"/>
       <c r="L505" s="9"/>
     </row>
-    <row r="506" spans="11:12">
+    <row r="506" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E506" s="23">
+        <v>3</v>
+      </c>
+      <c r="F506" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="G506" s="24" t="s">
+        <v>313</v>
+      </c>
       <c r="K506" s="9"/>
       <c r="L506" s="9"/>
     </row>
-    <row r="507" spans="11:12">
+    <row r="507" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E507" s="23">
+        <v>4</v>
+      </c>
+      <c r="F507" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G507" s="24" t="s">
+        <v>315</v>
+      </c>
       <c r="K507" s="9"/>
       <c r="L507" s="9"/>
     </row>
-    <row r="508" spans="11:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K508" s="9"/>
       <c r="L508" s="9"/>
     </row>
-    <row r="509" spans="11:12">
+    <row r="509" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A509" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B509" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D509" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F509" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I509" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K509" s="9"/>
       <c r="L509" s="9"/>
     </row>
-    <row r="510" spans="11:12">
+    <row r="510" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E510" s="7">
+        <v>1</v>
+      </c>
+      <c r="F510" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G510" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H510" s="20"/>
+      <c r="I510" s="20"/>
       <c r="K510" s="9"/>
       <c r="L510" s="9"/>
     </row>
-    <row r="511" spans="11:12">
+    <row r="511" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E511" s="23">
+        <v>2</v>
+      </c>
+      <c r="F511" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G511" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H511" s="6"/>
+      <c r="I511" s="6"/>
       <c r="K511" s="9"/>
       <c r="L511" s="9"/>
     </row>
-    <row r="512" spans="11:12">
+    <row r="512" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E512" s="23">
+        <v>3</v>
+      </c>
+      <c r="F512" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G512" s="24" t="s">
+        <v>310</v>
+      </c>
       <c r="K512" s="9"/>
       <c r="L512" s="9"/>
     </row>
-    <row r="513" spans="11:12">
+    <row r="513" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="E513" s="23">
+        <v>4</v>
+      </c>
+      <c r="F513" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G513" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="I513" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="K513" s="9"/>
       <c r="L513" s="9"/>
     </row>
-    <row r="514" spans="11:12">
+    <row r="514" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E514" s="23">
+        <v>5</v>
+      </c>
+      <c r="F514" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G514" s="24" t="s">
+        <v>320</v>
+      </c>
       <c r="K514" s="9"/>
       <c r="L514" s="9"/>
     </row>
-    <row r="515" spans="11:12">
+    <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E515" s="23">
+        <v>6</v>
+      </c>
+      <c r="F515" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G515" s="24" t="s">
+        <v>321</v>
+      </c>
       <c r="K515" s="9"/>
       <c r="L515" s="9"/>
     </row>
-    <row r="516" spans="11:12">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K516" s="9"/>
       <c r="L516" s="9"/>
     </row>
-    <row r="517" spans="11:12">
+    <row r="517" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A517" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B517" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D517" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F517" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I517" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K517" s="9"/>
       <c r="L517" s="9"/>
     </row>
-    <row r="518" spans="11:12">
+    <row r="518" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E518" s="7">
+        <v>1</v>
+      </c>
+      <c r="F518" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G518" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H518" s="20"/>
+      <c r="I518" s="20"/>
       <c r="K518" s="9"/>
       <c r="L518" s="9"/>
     </row>
-    <row r="519" spans="11:12">
+    <row r="519" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E519" s="23">
+        <v>2</v>
+      </c>
+      <c r="F519" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G519" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H519" s="6"/>
+      <c r="I519" s="6"/>
       <c r="K519" s="9"/>
       <c r="L519" s="9"/>
     </row>
-    <row r="520" spans="11:12">
+    <row r="520" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E520" s="23">
+        <v>3</v>
+      </c>
+      <c r="F520" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G520" s="24" t="s">
+        <v>310</v>
+      </c>
       <c r="K520" s="9"/>
       <c r="L520" s="9"/>
     </row>
-    <row r="521" spans="11:12">
+    <row r="521" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="E521" s="23">
+        <v>4</v>
+      </c>
+      <c r="F521" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G521" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="I521" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="K521" s="9"/>
       <c r="L521" s="9"/>
     </row>
-    <row r="522" spans="11:12">
+    <row r="522" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E522" s="23">
+        <v>6</v>
+      </c>
+      <c r="F522" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G522" s="24" t="s">
+        <v>324</v>
+      </c>
       <c r="K522" s="9"/>
       <c r="L522" s="9"/>
     </row>
-    <row r="523" spans="11:12">
+    <row r="523" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E523" s="23">
+        <v>7</v>
+      </c>
+      <c r="F523" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="G523" s="24" t="s">
+        <v>325</v>
+      </c>
       <c r="K523" s="9"/>
       <c r="L523" s="9"/>
     </row>
-    <row r="524" spans="11:12">
+    <row r="524" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E524" s="23">
+        <v>8</v>
+      </c>
+      <c r="F524" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="G524" s="24" t="s">
+        <v>327</v>
+      </c>
       <c r="K524" s="9"/>
       <c r="L524" s="9"/>
     </row>
-    <row r="525" spans="11:12">
+    <row r="525" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A525" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B525" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D525" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F525" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I525" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K525" s="9"/>
       <c r="L525" s="9"/>
     </row>
-    <row r="526" spans="11:12">
+    <row r="526" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E526" s="7">
+        <v>1</v>
+      </c>
+      <c r="F526" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G526" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H526" s="20"/>
+      <c r="I526" s="20"/>
       <c r="K526" s="9"/>
       <c r="L526" s="9"/>
     </row>
-    <row r="527" spans="11:12">
+    <row r="527" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="E527" s="23">
+        <v>2</v>
+      </c>
+      <c r="F527" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G527" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="H527" s="6"/>
+      <c r="I527" s="6"/>
       <c r="K527" s="9"/>
       <c r="L527" s="9"/>
     </row>
-    <row r="528" spans="11:12">
+    <row r="528" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E528" s="24">
+        <v>3</v>
+      </c>
+      <c r="F528" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G528" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I528" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="K528" s="9"/>
       <c r="L528" s="9"/>
     </row>
-    <row r="529" spans="11:12">
+    <row r="529" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E529" s="7">
+        <v>4</v>
+      </c>
+      <c r="F529" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="K529" s="9"/>
       <c r="L529" s="9"/>
     </row>
-    <row r="530" spans="11:12">
+    <row r="530" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E530" s="7">
+        <v>5</v>
+      </c>
+      <c r="F530" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>339</v>
+      </c>
       <c r="K530" s="9"/>
       <c r="L530" s="9"/>
     </row>
-    <row r="531" spans="11:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K531" s="9"/>
       <c r="L531" s="9"/>
     </row>
-    <row r="532" spans="11:12">
+    <row r="532" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A532" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B532" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D532" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="F532" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I532" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K532" s="9"/>
       <c r="L532" s="9"/>
     </row>
-    <row r="533" spans="11:12">
+    <row r="533" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E533" s="7">
+        <v>1</v>
+      </c>
+      <c r="F533" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G533" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K533" s="9"/>
       <c r="L533" s="9"/>
     </row>
-    <row r="534" spans="11:12">
+    <row r="534" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="E534" s="23">
+        <v>2</v>
+      </c>
+      <c r="F534" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="G534" s="24" t="s">
+        <v>334</v>
+      </c>
       <c r="K534" s="9"/>
       <c r="L534" s="9"/>
     </row>
-    <row r="535" spans="11:12">
+    <row r="535" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E535" s="24">
+        <v>3</v>
+      </c>
+      <c r="F535" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G535" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="K535" s="9"/>
       <c r="L535" s="9"/>
     </row>
-    <row r="536" spans="11:12">
+    <row r="536" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E536" s="7">
+        <v>4</v>
+      </c>
+      <c r="F536" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G536" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="K536" s="9"/>
       <c r="L536" s="9"/>
     </row>
-    <row r="537" spans="11:12">
+    <row r="537" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E537" s="7">
+        <v>5</v>
+      </c>
+      <c r="F537" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G537" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="K537" s="9"/>
       <c r="L537" s="9"/>
     </row>
-    <row r="538" spans="11:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K538" s="9"/>
       <c r="L538" s="9"/>
     </row>
-    <row r="539" spans="11:12">
+    <row r="539" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A539" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B539" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D539" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F539" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I539" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K539" s="9"/>
       <c r="L539" s="9"/>
     </row>
-    <row r="540" spans="11:12">
+    <row r="540" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E540" s="7">
+        <v>1</v>
+      </c>
+      <c r="F540" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G540" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K540" s="9"/>
       <c r="L540" s="9"/>
     </row>
-    <row r="541" spans="11:12">
+    <row r="541" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E541" s="23">
+        <v>2</v>
+      </c>
+      <c r="F541" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G541" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="K541" s="9"/>
       <c r="L541" s="9"/>
     </row>
-    <row r="542" spans="11:12">
+    <row r="542" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E542" s="7">
+        <v>3</v>
+      </c>
+      <c r="F542" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G542" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I542" s="7" t="s">
+        <v>352</v>
+      </c>
       <c r="K542" s="9"/>
       <c r="L542" s="9"/>
     </row>
-    <row r="543" spans="11:12">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E543" s="7">
+        <v>4</v>
+      </c>
+      <c r="F543" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G543" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="K543" s="9"/>
       <c r="L543" s="9"/>
     </row>
-    <row r="544" spans="11:12">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K544" s="9"/>
       <c r="L544" s="9"/>
     </row>
-    <row r="545" spans="11:12">
+    <row r="545" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A545" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B545" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D545" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F545" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I545" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K545" s="9"/>
       <c r="L545" s="9"/>
     </row>
-    <row r="546" spans="11:12">
+    <row r="546" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E546" s="7">
+        <v>1</v>
+      </c>
+      <c r="F546" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G546" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K546" s="9"/>
       <c r="L546" s="9"/>
     </row>
-    <row r="547" spans="11:12">
+    <row r="547" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E547" s="23">
+        <v>2</v>
+      </c>
+      <c r="F547" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G547" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="K547" s="9"/>
       <c r="L547" s="9"/>
     </row>
-    <row r="548" spans="11:12">
+    <row r="548" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E548" s="7">
+        <v>3</v>
+      </c>
+      <c r="F548" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G548" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I548" s="7" t="s">
+        <v>357</v>
+      </c>
       <c r="K548" s="9"/>
       <c r="L548" s="9"/>
     </row>
-    <row r="549" spans="11:12">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E549" s="7">
+        <v>4</v>
+      </c>
+      <c r="F549" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G549" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="K549" s="9"/>
       <c r="L549" s="9"/>
     </row>
-    <row r="550" spans="11:12">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K550" s="9"/>
       <c r="L550" s="9"/>
     </row>
-    <row r="551" spans="11:12">
+    <row r="551" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A551" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B551" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D551" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F551" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I551" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K551" s="9"/>
       <c r="L551" s="9"/>
     </row>
-    <row r="552" spans="11:12">
+    <row r="552" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E552" s="7">
+        <v>1</v>
+      </c>
+      <c r="F552" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G552" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K552" s="9"/>
       <c r="L552" s="9"/>
     </row>
-    <row r="553" spans="11:12">
+    <row r="553" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E553" s="23">
+        <v>2</v>
+      </c>
+      <c r="F553" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G553" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="K553" s="9"/>
       <c r="L553" s="9"/>
     </row>
-    <row r="554" spans="11:12">
+    <row r="554" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E554" s="7">
+        <v>3</v>
+      </c>
+      <c r="F554" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G554" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I554" s="7" t="s">
+        <v>361</v>
+      </c>
       <c r="K554" s="9"/>
       <c r="L554" s="9"/>
     </row>
-    <row r="555" spans="11:12">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E555" s="7">
+        <v>4</v>
+      </c>
+      <c r="F555" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G555" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="K555" s="9"/>
       <c r="L555" s="9"/>
     </row>
-    <row r="556" spans="11:12">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K556" s="9"/>
       <c r="L556" s="9"/>
     </row>
-    <row r="557" spans="11:12">
+    <row r="557" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A557" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B557" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D557" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F557" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I557" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K557" s="9"/>
       <c r="L557" s="9"/>
     </row>
-    <row r="558" spans="11:12">
+    <row r="558" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E558" s="7">
+        <v>1</v>
+      </c>
+      <c r="F558" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G558" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K558" s="9"/>
       <c r="L558" s="9"/>
     </row>
-    <row r="559" spans="11:12">
+    <row r="559" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E559" s="23">
+        <v>2</v>
+      </c>
+      <c r="F559" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="G559" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="K559" s="9"/>
       <c r="L559" s="9"/>
     </row>
-    <row r="560" spans="11:12">
+    <row r="560" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E560" s="7">
+        <v>3</v>
+      </c>
+      <c r="F560" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G560" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="I560" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="K560" s="9"/>
       <c r="L560" s="9"/>
     </row>
-    <row r="561" spans="11:12">
+    <row r="561" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E561" s="7">
+        <v>4</v>
+      </c>
+      <c r="F561" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G561" s="7" t="s">
+        <v>371</v>
+      </c>
       <c r="K561" s="9"/>
       <c r="L561" s="9"/>
     </row>
-    <row r="562" spans="11:12">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K562" s="9"/>
       <c r="L562" s="9"/>
     </row>
-    <row r="563" spans="11:12">
+    <row r="563" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A563" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B563" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D563" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F563" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I563" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K563" s="9"/>
       <c r="L563" s="9"/>
     </row>
-    <row r="564" spans="11:12">
+    <row r="564" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E564" s="7">
+        <v>1</v>
+      </c>
+      <c r="F564" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G564" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K564" s="9"/>
       <c r="L564" s="9"/>
     </row>
-    <row r="565" spans="11:12">
+    <row r="565" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E565" s="23">
+        <v>2</v>
+      </c>
+      <c r="F565" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="G565" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="K565" s="9"/>
       <c r="L565" s="9"/>
     </row>
-    <row r="566" spans="11:12">
+    <row r="566" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E566" s="24">
+        <v>3</v>
+      </c>
+      <c r="F566" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G566" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I566" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="K566" s="9"/>
       <c r="L566" s="9"/>
     </row>
-    <row r="567" spans="11:12">
+    <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E567" s="7">
+        <v>4</v>
+      </c>
+      <c r="F567" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G567" s="7" t="s">
+        <v>371</v>
+      </c>
       <c r="K567" s="9"/>
       <c r="L567" s="9"/>
     </row>
-    <row r="568" spans="11:12">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K568" s="9"/>
       <c r="L568" s="9"/>
     </row>
-    <row r="569" spans="11:12">
+    <row r="569" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A569" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B569" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D569" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F569" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I569" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K569" s="9"/>
       <c r="L569" s="9"/>
     </row>
-    <row r="570" spans="11:12">
+    <row r="570" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E570" s="7">
+        <v>1</v>
+      </c>
+      <c r="F570" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G570" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K570" s="9"/>
       <c r="L570" s="9"/>
     </row>
-    <row r="571" spans="11:12">
+    <row r="571" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E571" s="23">
+        <v>2</v>
+      </c>
+      <c r="F571" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G571" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="K571" s="9"/>
       <c r="L571" s="9"/>
     </row>
-    <row r="572" spans="11:12">
+    <row r="572" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E572" s="7">
+        <v>3</v>
+      </c>
+      <c r="F572" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G572" s="7" t="s">
+        <v>379</v>
+      </c>
       <c r="K572" s="9"/>
       <c r="L572" s="9"/>
     </row>
-    <row r="573" spans="11:12">
+    <row r="573" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E573" s="7">
+        <v>4</v>
+      </c>
+      <c r="F573" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G573" s="7" t="s">
+        <v>381</v>
+      </c>
       <c r="K573" s="9"/>
       <c r="L573" s="9"/>
     </row>
-    <row r="574" spans="11:12">
+    <row r="574" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E574" s="7">
+        <v>5</v>
+      </c>
+      <c r="F574" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G574" s="7" t="s">
+        <v>371</v>
+      </c>
       <c r="K574" s="9"/>
       <c r="L574" s="9"/>
     </row>
-    <row r="575" spans="11:12">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K575" s="9"/>
       <c r="L575" s="9"/>
     </row>
-    <row r="576" spans="11:12">
+    <row r="576" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A576" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B576" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D576" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F576" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I576" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K576" s="9"/>
       <c r="L576" s="9"/>
     </row>
-    <row r="577" spans="11:12">
+    <row r="577" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E577" s="7">
+        <v>1</v>
+      </c>
+      <c r="F577" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G577" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K577" s="9"/>
       <c r="L577" s="9"/>
     </row>
-    <row r="578" spans="11:12">
+    <row r="578" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E578" s="23">
+        <v>2</v>
+      </c>
+      <c r="F578" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G578" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="K578" s="9"/>
       <c r="L578" s="9"/>
     </row>
-    <row r="579" spans="11:12">
+    <row r="579" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E579" s="7">
+        <v>3</v>
+      </c>
+      <c r="F579" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G579" s="7" t="s">
+        <v>389</v>
+      </c>
       <c r="K579" s="9"/>
       <c r="L579" s="9"/>
     </row>
-    <row r="580" spans="11:12">
+    <row r="580" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E580" s="7">
+        <v>4</v>
+      </c>
+      <c r="F580" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G580" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I580" s="7" t="s">
+        <v>394</v>
+      </c>
       <c r="K580" s="9"/>
       <c r="L580" s="9"/>
     </row>
-    <row r="581" spans="11:12">
+    <row r="581" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E581" s="7">
+        <v>5</v>
+      </c>
+      <c r="F581" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G581" s="7" t="s">
+        <v>393</v>
+      </c>
       <c r="K581" s="9"/>
       <c r="L581" s="9"/>
     </row>
-    <row r="582" spans="11:12">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K582" s="9"/>
       <c r="L582" s="9"/>
     </row>
-    <row r="583" spans="11:12">
+    <row r="583" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A583" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B583" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D583" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F583" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I583" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K583" s="9"/>
       <c r="L583" s="9"/>
     </row>
-    <row r="584" spans="11:12">
+    <row r="584" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E584" s="7">
+        <v>1</v>
+      </c>
+      <c r="F584" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G584" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K584" s="9"/>
       <c r="L584" s="9"/>
     </row>
-    <row r="585" spans="11:12">
+    <row r="585" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E585" s="23">
+        <v>2</v>
+      </c>
+      <c r="F585" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G585" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="K585" s="9"/>
       <c r="L585" s="9"/>
     </row>
-    <row r="586" spans="11:12">
+    <row r="586" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E586" s="23">
+        <v>3</v>
+      </c>
+      <c r="F586" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="G586" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="K586" s="9"/>
       <c r="L586" s="9"/>
     </row>
-    <row r="587" spans="11:12">
+    <row r="587" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E587" s="7">
+        <v>4</v>
+      </c>
+      <c r="F587" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G587" s="7" t="s">
+        <v>397</v>
+      </c>
       <c r="K587" s="9"/>
       <c r="L587" s="9"/>
     </row>
-    <row r="588" spans="11:12">
+    <row r="588" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E588" s="7">
+        <v>5</v>
+      </c>
+      <c r="F588" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G588" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I588" s="7" t="s">
+        <v>404</v>
+      </c>
       <c r="K588" s="9"/>
       <c r="L588" s="9"/>
     </row>
-    <row r="589" spans="11:12">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E589" s="7">
+        <v>6</v>
+      </c>
+      <c r="F589" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G589" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="I589" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="K589" s="9"/>
       <c r="L589" s="9"/>
     </row>
-    <row r="590" spans="11:12">
+    <row r="590" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E590" s="7">
+        <v>7</v>
+      </c>
+      <c r="F590" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G590" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="K590" s="9"/>
       <c r="L590" s="9"/>
     </row>
-    <row r="591" spans="11:12">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K591" s="9"/>
       <c r="L591" s="9"/>
     </row>
-    <row r="592" spans="11:12">
+    <row r="592" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A592" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B592" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D592" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F592" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I592" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K592" s="9"/>
       <c r="L592" s="9"/>
     </row>
-    <row r="593" spans="11:12">
+    <row r="593" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E593" s="7">
+        <v>1</v>
+      </c>
+      <c r="F593" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G593" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K593" s="9"/>
       <c r="L593" s="9"/>
     </row>
-    <row r="594" spans="11:12">
+    <row r="594" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E594" s="23">
+        <v>2</v>
+      </c>
+      <c r="F594" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G594" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="K594" s="9"/>
       <c r="L594" s="9"/>
     </row>
-    <row r="595" spans="11:12">
+    <row r="595" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E595" s="23">
+        <v>3</v>
+      </c>
+      <c r="F595" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="G595" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="K595" s="9"/>
       <c r="L595" s="9"/>
     </row>
-    <row r="596" spans="11:12">
+    <row r="596" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E596" s="7">
+        <v>4</v>
+      </c>
+      <c r="F596" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G596" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="K596" s="9"/>
       <c r="L596" s="9"/>
     </row>
-    <row r="597" spans="11:12">
+    <row r="597" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E597" s="7">
+        <v>5</v>
+      </c>
+      <c r="F597" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G597" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="K597" s="9"/>
       <c r="L597" s="9"/>
     </row>
-    <row r="598" spans="11:12">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K598" s="9"/>
       <c r="L598" s="9"/>
     </row>
-    <row r="599" spans="11:12">
+    <row r="599" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A599" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B599" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D599" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F599" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I599" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K599" s="9"/>
       <c r="L599" s="9"/>
     </row>
-    <row r="600" spans="11:12">
+    <row r="600" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E600" s="7">
+        <v>1</v>
+      </c>
+      <c r="F600" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G600" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K600" s="9"/>
       <c r="L600" s="9"/>
     </row>
-    <row r="601" spans="11:12">
+    <row r="601" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E601" s="23">
+        <v>2</v>
+      </c>
+      <c r="F601" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="G601" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="K601" s="9"/>
       <c r="L601" s="9"/>
     </row>
-    <row r="602" spans="11:12">
+    <row r="602" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E602" s="23">
+        <v>3</v>
+      </c>
+      <c r="F602" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="G602" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="K602" s="9"/>
       <c r="L602" s="9"/>
     </row>
-    <row r="603" spans="11:12">
+    <row r="603" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E603" s="7">
+        <v>4</v>
+      </c>
+      <c r="F603" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G603" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I603" s="7" t="s">
+        <v>416</v>
+      </c>
       <c r="K603" s="9"/>
       <c r="L603" s="9"/>
     </row>
-    <row r="604" spans="11:12">
+    <row r="604" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E604" s="7">
+        <v>5</v>
+      </c>
+      <c r="F604" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G604" s="7" t="s">
+        <v>419</v>
+      </c>
       <c r="K604" s="9"/>
       <c r="L604" s="9"/>
     </row>
-    <row r="605" spans="11:12">
+    <row r="605" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="E605" s="7">
+        <v>6</v>
+      </c>
+      <c r="F605" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G605" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="I605" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="K605" s="9"/>
       <c r="L605" s="9"/>
     </row>
-    <row r="606" spans="11:12">
+    <row r="606" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E606" s="7">
+        <v>7</v>
+      </c>
+      <c r="F606" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G606" s="7" t="s">
+        <v>403</v>
+      </c>
       <c r="K606" s="9"/>
       <c r="L606" s="9"/>
     </row>
-    <row r="607" spans="11:12">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K607" s="9"/>
       <c r="L607" s="9"/>
     </row>
-    <row r="608" spans="11:12">
+    <row r="608" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A608" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B608" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D608" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="F608" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I608" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K608" s="9"/>
       <c r="L608" s="9"/>
     </row>
-    <row r="609" spans="11:12">
+    <row r="609" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E609" s="7">
+        <v>1</v>
+      </c>
+      <c r="F609" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G609" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K609" s="9"/>
       <c r="L609" s="9"/>
     </row>
-    <row r="610" spans="11:12">
+    <row r="610" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E610" s="23">
+        <v>2</v>
+      </c>
+      <c r="F610" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G610" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="K610" s="9"/>
       <c r="L610" s="9"/>
     </row>
-    <row r="611" spans="11:12">
+    <row r="611" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E611" s="23">
+        <v>3</v>
+      </c>
+      <c r="F611" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G611" s="24" t="s">
+        <v>428</v>
+      </c>
       <c r="K611" s="9"/>
       <c r="L611" s="9"/>
     </row>
-    <row r="612" spans="11:12">
+    <row r="612" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E612" s="23">
+        <v>4</v>
+      </c>
+      <c r="F612" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G612" s="24" t="s">
+        <v>430</v>
+      </c>
       <c r="K612" s="9"/>
       <c r="L612" s="9"/>
     </row>
-    <row r="613" spans="11:12">
+    <row r="613" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E613" s="23">
+        <v>5</v>
+      </c>
+      <c r="F613" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="G613" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I613" s="7" t="s">
+        <v>466</v>
+      </c>
       <c r="K613" s="9"/>
       <c r="L613" s="9"/>
     </row>
-    <row r="614" spans="11:12">
+    <row r="614" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E614" s="23">
+        <v>6</v>
+      </c>
+      <c r="F614" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G614" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="K614" s="9"/>
       <c r="L614" s="9"/>
     </row>
-    <row r="615" spans="11:12">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E615" s="23">
+        <v>7</v>
+      </c>
+      <c r="F615" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G615" s="23"/>
       <c r="K615" s="9"/>
       <c r="L615" s="9"/>
     </row>
-    <row r="616" spans="11:12">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K616" s="9"/>
       <c r="L616" s="9"/>
     </row>
-    <row r="617" spans="11:12">
+    <row r="617" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A617" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B617" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D617" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="F617" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I617" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K617" s="9"/>
       <c r="L617" s="9"/>
     </row>
-    <row r="618" spans="11:12">
+    <row r="618" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E618" s="7">
+        <v>1</v>
+      </c>
+      <c r="F618" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G618" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K618" s="9"/>
       <c r="L618" s="9"/>
     </row>
-    <row r="619" spans="11:12">
+    <row r="619" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E619" s="23">
+        <v>2</v>
+      </c>
+      <c r="F619" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G619" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="K619" s="9"/>
       <c r="L619" s="9"/>
     </row>
-    <row r="620" spans="11:12">
+    <row r="620" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E620" s="23">
+        <v>4</v>
+      </c>
+      <c r="F620" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G620" s="24" t="s">
+        <v>428</v>
+      </c>
       <c r="K620" s="9"/>
       <c r="L620" s="9"/>
     </row>
-    <row r="621" spans="11:12">
+    <row r="621" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E621" s="23">
+        <v>5</v>
+      </c>
+      <c r="F621" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G621" s="24" t="s">
+        <v>430</v>
+      </c>
       <c r="K621" s="9"/>
       <c r="L621" s="9"/>
     </row>
-    <row r="622" spans="11:12">
+    <row r="622" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E622" s="23">
+        <v>6</v>
+      </c>
+      <c r="F622" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="G622" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I622" s="7" t="s">
+        <v>465</v>
+      </c>
       <c r="K622" s="9"/>
       <c r="L622" s="9"/>
     </row>
-    <row r="623" spans="11:12">
+    <row r="623" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E623" s="23">
+        <v>7</v>
+      </c>
+      <c r="F623" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G623" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="K623" s="9"/>
       <c r="L623" s="9"/>
     </row>
-    <row r="624" spans="11:12">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E624" s="23">
+        <v>8</v>
+      </c>
+      <c r="F624" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G624" s="23"/>
       <c r="K624" s="9"/>
       <c r="L624" s="9"/>
     </row>
-    <row r="625" spans="11:12">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K625" s="9"/>
       <c r="L625" s="9"/>
     </row>
-    <row r="626" spans="11:12">
+    <row r="626" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A626" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B626" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D626" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="F626" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I626" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K626" s="9"/>
       <c r="L626" s="9"/>
     </row>
-    <row r="627" spans="11:12">
+    <row r="627" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E627" s="7">
+        <v>1</v>
+      </c>
+      <c r="F627" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G627" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K627" s="9"/>
       <c r="L627" s="9"/>
     </row>
-    <row r="628" spans="11:12">
+    <row r="628" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E628" s="23">
+        <v>2</v>
+      </c>
+      <c r="F628" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G628" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="K628" s="9"/>
       <c r="L628" s="9"/>
     </row>
-    <row r="629" spans="11:12">
+    <row r="629" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E629" s="23">
+        <v>4</v>
+      </c>
+      <c r="F629" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G629" s="24" t="s">
+        <v>428</v>
+      </c>
       <c r="K629" s="9"/>
       <c r="L629" s="9"/>
     </row>
-    <row r="630" spans="11:12">
+    <row r="630" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E630" s="23">
+        <v>5</v>
+      </c>
+      <c r="F630" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G630" s="24" t="s">
+        <v>430</v>
+      </c>
       <c r="K630" s="9"/>
       <c r="L630" s="9"/>
     </row>
-    <row r="631" spans="11:12">
+    <row r="631" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E631" s="23">
+        <v>6</v>
+      </c>
+      <c r="F631" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="G631" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I631" s="7" t="s">
+        <v>465</v>
+      </c>
       <c r="K631" s="9"/>
       <c r="L631" s="9"/>
     </row>
-    <row r="632" spans="11:12">
+    <row r="632" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E632" s="23">
+        <v>7</v>
+      </c>
+      <c r="F632" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G632" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="K632" s="9"/>
       <c r="L632" s="9"/>
     </row>
-    <row r="633" spans="11:12">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E633" s="23">
+        <v>8</v>
+      </c>
+      <c r="F633" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G633" s="23"/>
       <c r="K633" s="9"/>
       <c r="L633" s="9"/>
     </row>
-    <row r="634" spans="11:12">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K634" s="9"/>
       <c r="L634" s="9"/>
     </row>
-    <row r="635" spans="11:12">
+    <row r="635" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A635" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B635" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D635" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="F635" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I635" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K635" s="9"/>
       <c r="L635" s="9"/>
     </row>
-    <row r="636" spans="11:12">
+    <row r="636" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E636" s="7">
+        <v>1</v>
+      </c>
+      <c r="F636" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G636" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K636" s="9"/>
       <c r="L636" s="9"/>
     </row>
-    <row r="637" spans="11:12">
+    <row r="637" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E637" s="23">
+        <v>2</v>
+      </c>
+      <c r="F637" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G637" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="K637" s="9"/>
       <c r="L637" s="9"/>
     </row>
-    <row r="638" spans="11:12">
+    <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E638" s="23">
+        <v>4</v>
+      </c>
+      <c r="F638" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G638" s="24" t="s">
+        <v>428</v>
+      </c>
       <c r="K638" s="9"/>
       <c r="L638" s="9"/>
     </row>
-    <row r="639" spans="11:12">
+    <row r="639" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E639" s="23">
+        <v>5</v>
+      </c>
+      <c r="F639" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G639" s="24" t="s">
+        <v>430</v>
+      </c>
       <c r="K639" s="9"/>
       <c r="L639" s="9"/>
     </row>
-    <row r="640" spans="11:12">
+    <row r="640" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E640" s="23">
+        <v>6</v>
+      </c>
+      <c r="F640" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="G640" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I640" s="7" t="s">
+        <v>463</v>
+      </c>
       <c r="K640" s="9"/>
       <c r="L640" s="9"/>
     </row>
-    <row r="641" spans="11:12">
+    <row r="641" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E641" s="23">
+        <v>7</v>
+      </c>
+      <c r="F641" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G641" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="K641" s="9"/>
       <c r="L641" s="9"/>
     </row>
-    <row r="642" spans="11:12">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E642" s="23">
+        <v>8</v>
+      </c>
+      <c r="F642" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G642" s="23"/>
       <c r="K642" s="9"/>
       <c r="L642" s="9"/>
     </row>
-    <row r="643" spans="11:12">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K643" s="9"/>
       <c r="L643" s="9"/>
     </row>
-    <row r="644" spans="11:12">
+    <row r="644" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A644" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B644" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D644" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="F644" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I644" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K644" s="9"/>
       <c r="L644" s="9"/>
     </row>
-    <row r="645" spans="11:12">
+    <row r="645" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E645" s="7">
+        <v>1</v>
+      </c>
+      <c r="F645" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G645" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K645" s="9"/>
       <c r="L645" s="9"/>
     </row>
-    <row r="646" spans="11:12">
+    <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E646" s="23">
+        <v>2</v>
+      </c>
+      <c r="F646" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G646" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="K646" s="9"/>
       <c r="L646" s="9"/>
     </row>
-    <row r="647" spans="11:12">
+    <row r="647" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E647" s="23">
+        <v>4</v>
+      </c>
+      <c r="F647" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="G647" s="24" t="s">
+        <v>428</v>
+      </c>
       <c r="K647" s="9"/>
       <c r="L647" s="9"/>
     </row>
-    <row r="648" spans="11:12">
+    <row r="648" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E648" s="23">
+        <v>5</v>
+      </c>
+      <c r="F648" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="G648" s="24" t="s">
+        <v>442</v>
+      </c>
       <c r="K648" s="9"/>
       <c r="L648" s="9"/>
     </row>
-    <row r="649" spans="11:12">
+    <row r="649" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E649" s="23">
+        <v>6</v>
+      </c>
+      <c r="F649" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="G649" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="I649" s="7" t="s">
+        <v>462</v>
+      </c>
       <c r="K649" s="9"/>
       <c r="L649" s="9"/>
     </row>
-    <row r="650" spans="11:12">
+    <row r="650" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E650" s="23">
+        <v>7</v>
+      </c>
+      <c r="F650" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G650" s="24" t="s">
+        <v>221</v>
+      </c>
       <c r="K650" s="9"/>
       <c r="L650" s="9"/>
     </row>
-    <row r="651" spans="11:12">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E651" s="23">
+        <v>8</v>
+      </c>
+      <c r="F651" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G651" s="23"/>
       <c r="K651" s="9"/>
       <c r="L651" s="9"/>
     </row>
-    <row r="652" spans="11:12">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K652" s="9"/>
       <c r="L652" s="9"/>
     </row>
-    <row r="653" spans="11:12">
+    <row r="653" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A653" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B653" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D653" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="F653" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I653" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K653" s="9"/>
       <c r="L653" s="9"/>
     </row>
-    <row r="654" spans="11:12">
+    <row r="654" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E654" s="7">
+        <v>1</v>
+      </c>
+      <c r="F654" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G654" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K654" s="9"/>
       <c r="L654" s="9"/>
     </row>
-    <row r="655" spans="11:12">
+    <row r="655" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E655" s="23">
+        <v>2</v>
+      </c>
+      <c r="F655" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G655" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="K655" s="9"/>
       <c r="L655" s="9"/>
     </row>
-    <row r="656" spans="11:12">
+    <row r="656" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E656" s="23">
+        <v>3</v>
+      </c>
+      <c r="F656" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G656" s="24" t="s">
+        <v>447</v>
+      </c>
       <c r="K656" s="9"/>
       <c r="L656" s="9"/>
     </row>
-    <row r="657" spans="11:12">
+    <row r="657" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E657" s="23">
+        <v>4</v>
+      </c>
+      <c r="F657" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G657" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="I657" s="7" t="s">
+        <v>460</v>
+      </c>
       <c r="K657" s="9"/>
       <c r="L657" s="9"/>
     </row>
-    <row r="658" spans="11:12">
+    <row r="658" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="E658" s="23">
+        <v>5</v>
+      </c>
+      <c r="F658" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G658" s="24" t="s">
+        <v>448</v>
+      </c>
       <c r="K658" s="9"/>
       <c r="L658" s="9"/>
     </row>
-    <row r="659" spans="11:12">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K659" s="9"/>
       <c r="L659" s="9"/>
     </row>
-    <row r="660" spans="11:12">
+    <row r="660" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A660" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B660" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D660" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F660" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I660" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K660" s="9"/>
       <c r="L660" s="9"/>
     </row>
-    <row r="661" spans="11:12">
+    <row r="661" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E661" s="7">
+        <v>1</v>
+      </c>
+      <c r="F661" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G661" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K661" s="9"/>
       <c r="L661" s="9"/>
     </row>
-    <row r="662" spans="11:12">
+    <row r="662" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E662" s="23">
+        <v>2</v>
+      </c>
+      <c r="F662" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G662" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="K662" s="9"/>
       <c r="L662" s="9"/>
     </row>
-    <row r="663" spans="11:12">
+    <row r="663" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E663" s="23">
+        <v>3</v>
+      </c>
+      <c r="F663" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="G663" s="24" t="s">
+        <v>451</v>
+      </c>
       <c r="K663" s="9"/>
       <c r="L663" s="9"/>
     </row>
-    <row r="664" spans="11:12">
+    <row r="664" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="E664" s="23">
+        <v>4</v>
+      </c>
+      <c r="F664" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="G664" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="I664" s="7" t="s">
+        <v>461</v>
+      </c>
       <c r="K664" s="9"/>
       <c r="L664" s="9"/>
     </row>
-    <row r="665" spans="11:12">
+    <row r="665" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E665" s="23">
+        <v>5</v>
+      </c>
+      <c r="F665" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="G665" s="24" t="s">
+        <v>454</v>
+      </c>
       <c r="K665" s="9"/>
       <c r="L665" s="9"/>
     </row>
-    <row r="666" spans="11:12">
+    <row r="666" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E666" s="23">
+        <v>6</v>
+      </c>
+      <c r="F666" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G666" s="24" t="s">
+        <v>249</v>
+      </c>
       <c r="K666" s="9"/>
       <c r="L666" s="9"/>
     </row>
-    <row r="667" spans="11:12">
+    <row r="667" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E667" s="23">
+        <v>7</v>
+      </c>
+      <c r="F667" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G667" s="24" t="s">
+        <v>250</v>
+      </c>
       <c r="K667" s="9"/>
       <c r="L667" s="9"/>
     </row>
-    <row r="668" spans="11:12">
+    <row r="668" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E668" s="23">
+        <v>8</v>
+      </c>
+      <c r="F668" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="G668" s="24" t="s">
+        <v>455</v>
+      </c>
       <c r="K668" s="9"/>
       <c r="L668" s="9"/>
     </row>
-    <row r="669" spans="11:12">
+    <row r="669" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E669" s="23">
+        <v>9</v>
+      </c>
+      <c r="F669" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="G669" s="24" t="s">
+        <v>457</v>
+      </c>
       <c r="K669" s="9"/>
       <c r="L669" s="9"/>
     </row>
-    <row r="670" spans="11:12">
+    <row r="670" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E670" s="23">
+        <v>10</v>
+      </c>
+      <c r="F670" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="G670" s="24" t="s">
+        <v>459</v>
+      </c>
       <c r="K670" s="9"/>
       <c r="L670" s="9"/>
     </row>
-    <row r="671" spans="11:12">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K671" s="9"/>
       <c r="L671" s="9"/>
     </row>
-    <row r="672" spans="11:12">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K672" s="9"/>
       <c r="L672" s="9"/>
     </row>
-    <row r="673" spans="11:12">
+    <row r="673" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K673" s="9"/>
       <c r="L673" s="9"/>
     </row>
-    <row r="674" spans="11:12">
+    <row r="674" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K674" s="9"/>
       <c r="L674" s="9"/>
     </row>
-    <row r="675" spans="11:12">
+    <row r="675" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K675" s="9"/>
       <c r="L675" s="9"/>
     </row>
-    <row r="676" spans="11:12">
+    <row r="676" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K676" s="9"/>
       <c r="L676" s="9"/>
     </row>
-    <row r="677" spans="11:12">
+    <row r="677" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K677" s="9"/>
       <c r="L677" s="9"/>
     </row>
-    <row r="678" spans="11:12">
+    <row r="678" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K678" s="9"/>
       <c r="L678" s="9"/>
     </row>
-    <row r="679" spans="11:12">
+    <row r="679" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K679" s="9"/>
       <c r="L679" s="9"/>
     </row>
-    <row r="680" spans="11:12">
+    <row r="680" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K680" s="9"/>
       <c r="L680" s="9"/>
     </row>
-    <row r="681" spans="11:12">
+    <row r="681" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K681" s="9"/>
       <c r="L681" s="9"/>
     </row>
-    <row r="682" spans="11:12">
+    <row r="682" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K682" s="9"/>
       <c r="L682" s="9"/>
     </row>
-    <row r="683" spans="11:12">
+    <row r="683" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K683" s="9"/>
       <c r="L683" s="9"/>
     </row>
-    <row r="684" spans="11:12">
+    <row r="684" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K684" s="9"/>
       <c r="L684" s="9"/>
     </row>
-    <row r="685" spans="11:12">
+    <row r="685" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K685" s="9"/>
       <c r="L685" s="9"/>
     </row>
-    <row r="686" spans="11:12">
+    <row r="686" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K686" s="9"/>
       <c r="L686" s="9"/>
     </row>
-    <row r="687" spans="11:12">
+    <row r="687" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K687" s="9"/>
       <c r="L687" s="9"/>
     </row>
-    <row r="688" spans="11:12">
+    <row r="688" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K688" s="9"/>
       <c r="L688" s="9"/>
     </row>
-    <row r="689" spans="12:12">
+    <row r="689" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K689" s="9"/>
       <c r="L689" s="9"/>
     </row>
-    <row r="690" spans="12:12">
+    <row r="690" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L690" s="9"/>
     </row>
-    <row r="691" spans="12:12">
+    <row r="691" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L691" s="9"/>
     </row>
-    <row r="692" spans="12:12">
+    <row r="692" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L692" s="9"/>
     </row>
-    <row r="693" spans="12:12">
+    <row r="693" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L693" s="9"/>
     </row>
-    <row r="694" spans="12:12">
+    <row r="694" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L694" s="9"/>
     </row>
-    <row r="695" spans="12:12">
+    <row r="695" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L695" s="9"/>
     </row>
-    <row r="696" spans="12:12">
+    <row r="696" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L696" s="9"/>
     </row>
-    <row r="697" spans="12:12">
+    <row r="697" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L697" s="9"/>
     </row>
-    <row r="698" spans="12:12">
+    <row r="698" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L698" s="9"/>
     </row>
-    <row r="699" spans="12:12">
+    <row r="699" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L699" s="9"/>
     </row>
-    <row r="700" spans="12:12">
+    <row r="700" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L700" s="9"/>
     </row>
-    <row r="701" spans="12:12">
+    <row r="701" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L701" s="9"/>
     </row>
-    <row r="702" spans="12:12">
+    <row r="702" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L702" s="9"/>
     </row>
-    <row r="703" spans="12:12">
+    <row r="703" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L703" s="9"/>
     </row>
-    <row r="704" spans="12:12">
+    <row r="704" spans="11:12" x14ac:dyDescent="0.25">
       <c r="L704" s="9"/>
     </row>
-    <row r="705" spans="12:12">
+    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L705" s="9"/>
     </row>
-    <row r="706" spans="12:12">
+    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L706" s="9"/>
     </row>
-    <row r="707" spans="12:12">
+    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L707" s="9"/>
     </row>
-    <row r="708" spans="12:12">
+    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L708" s="9"/>
     </row>
-    <row r="709" spans="12:12">
+    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L709" s="9"/>
     </row>
-    <row r="710" spans="12:12">
+    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L710" s="9"/>
     </row>
-    <row r="711" spans="12:12">
+    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L711" s="9"/>
     </row>
-    <row r="712" spans="12:12">
+    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L712" s="9"/>
     </row>
-    <row r="713" spans="12:12">
+    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L713" s="9"/>
     </row>
-    <row r="714" spans="12:12">
+    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L714" s="9"/>
     </row>
-    <row r="715" spans="12:12">
+    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L715" s="9"/>
     </row>
-    <row r="716" spans="12:12">
+    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L716" s="9"/>
     </row>
-    <row r="717" spans="12:12">
+    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L717" s="9"/>
     </row>
-    <row r="718" spans="12:12">
+    <row r="718" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L718" s="9"/>
     </row>
-    <row r="719" spans="12:12">
+    <row r="719" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L719" s="9"/>
     </row>
-    <row r="720" spans="12:12">
+    <row r="720" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L720" s="9"/>
     </row>
-    <row r="721" spans="12:12">
+    <row r="721" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L721" s="9"/>
     </row>
-    <row r="722" spans="12:12">
+    <row r="722" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L722" s="9"/>
     </row>
-    <row r="723" spans="12:12">
+    <row r="723" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L723" s="9"/>
     </row>
-    <row r="724" spans="12:12">
+    <row r="724" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L724" s="9"/>
     </row>
-    <row r="725" spans="12:12">
+    <row r="725" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L725" s="9"/>
     </row>
-    <row r="726" spans="12:12">
+    <row r="726" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L726" s="9"/>
     </row>
-    <row r="727" spans="12:12">
+    <row r="727" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L727" s="9"/>
     </row>
-    <row r="728" spans="12:12">
+    <row r="728" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L728" s="9"/>
     </row>
-    <row r="729" spans="12:12">
+    <row r="729" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L729" s="9"/>
     </row>
-    <row r="730" spans="12:12">
+    <row r="730" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L730" s="9"/>
     </row>
-    <row r="731" spans="12:12">
+    <row r="731" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L731" s="9"/>
     </row>
-    <row r="732" spans="12:12">
+    <row r="732" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L732" s="9"/>
     </row>
-    <row r="733" spans="12:12">
+    <row r="733" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L733" s="9"/>
+    </row>
+    <row r="734" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L734" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9152,24 +12225,24 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K346 J347:J356 K357:K485 C2:C659">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K346 J347:J356 K357:K485 C2:C662" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C660:C729">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C730" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B56 B13 B23 B30 B42 B69 B79 B92 B105 B119 B133 B146 B160 B175 B189 B203 B218 B231 B244 B257 B270 B284 B298 B309 B320 B333 B345 B347:B356 B361 B371 B381 B390 B400 B411 B420 B429 B437 B445">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B56 B13 B23 B30 B42 B69 B79 B92 B105 B119 B133 B146 B160 B175 B189 B203 B218 B231 B244 B257 B270 B284 B298 B309 B320 B333 B345 B347:B356 B361 B371 B381 B390 B400 B411 B420 B429 B437 B445 B453 B460 B467 B474 B481 B488 B495 B503 B509 B517 B525 B532 B539 B545 B551 B557 B563 B569 B576 B583 B592 B599 B608 B617 B626 B635 B644 B653 B660" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L346 K347:K356 L357:L733">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L346 K347:K356 L357:L734" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K486:K688">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K486:K689" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Test Case/Nithya/Test Case- Lab & General Billing.xlsx
+++ b/Test Case/Nithya/Test Case- Lab & General Billing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\CentralRepository-Mediware\Test Case\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F14F94-85F9-43F5-8BE9-22B9EBE7EA85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1439B1-C63C-4649-938C-40DD945568F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="514">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2160,6 +2160,184 @@
   </si>
   <si>
     <t>Refund Amount:500</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_069</t>
+  </si>
+  <si>
+    <t>Test case to verify Pending Requests</t>
+  </si>
+  <si>
+    <t>Navigate to Pending Requests</t>
+  </si>
+  <si>
+    <t>Pending Requests page should be displayed with
+1.Search 
+2.Clear
+3.IP
+2.OP
+3.ALL</t>
+  </si>
+  <si>
+    <t>Select any of the following Radio Buttons 
+1.IP
+2.OP
+3.ALL</t>
+  </si>
+  <si>
+    <t>Radio button should be selected</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Patient No:NH00000547</t>
+  </si>
+  <si>
+    <t>Enter invalid  data in any of the follwing fields
+1.Patient No
+2.Patient Name
+3.Doctor Name
+4.Requested Clinic</t>
+  </si>
+  <si>
+    <t>Patient No:NH00000546</t>
+  </si>
+  <si>
+    <t>Page should be populated with any of the following data 
+1.Patient No
+2.Patient Name
+3.Doctor Name
+4.Requested Clinic</t>
+  </si>
+  <si>
+    <t>"There is no pending Requests found in given criteria"</t>
+  </si>
+  <si>
+    <t>Enter valid  data in any of the follwing fields
+1.Patient No
+2.Patient Name
+3.Doctor Name
+4.Requested Clinic</t>
+  </si>
+  <si>
+    <t>Page should be displayed with pending requests table</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_070</t>
+  </si>
+  <si>
+    <t>Test case to verify Pending Requests Cancel</t>
+  </si>
+  <si>
+    <t>Click on Cancel pending Request and enter Reason of cancellataion</t>
+  </si>
+  <si>
+    <t>Cancel Procedure pop up should be displayed and the data should be entered</t>
+  </si>
+  <si>
+    <t>Conformation popup should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on  cancel </t>
+  </si>
+  <si>
+    <t>Pending Requests should be removed from the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Yes </t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_071</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to search Refund</t>
+  </si>
+  <si>
+    <t>Navigate to Menu&gt;&gt;Select Transactions&gt;&gt;Click on  Refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAB BILL REFUND  page should be displayed </t>
+  </si>
+  <si>
+    <t>REFUND SEARCH page should be displayed with the following fields
+1.Refund No
+2.Refund from Date
+3.Refund To Date
+4.Patient No</t>
+  </si>
+  <si>
+    <t>Data should be entered</t>
+  </si>
+  <si>
+    <t>Page should be displayed with patient Refund amount details</t>
+  </si>
+  <si>
+    <t>Enter any of the following in the Search field
+1.Patient No
+2.Refund No</t>
+  </si>
+  <si>
+    <t>Click on Search Refund</t>
+  </si>
+  <si>
+    <t>Select Refund Type from the drop down list</t>
+  </si>
+  <si>
+    <t>Page should be displayed with following Types
+1.Cash
+2.Inpatient
+3.OP credit</t>
+  </si>
+  <si>
+    <t>Refund Type:OP credit</t>
+  </si>
+  <si>
+    <t>Select  Bill Type from the drop down list</t>
+  </si>
+  <si>
+    <t>Bill Type:OP credit</t>
+  </si>
+  <si>
+    <t>Enter Bill No</t>
+  </si>
+  <si>
+    <t>Bill Number should be entered</t>
+  </si>
+  <si>
+    <t>Bill No:000282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following fields should be populated
+1.Patient Id
+2.Patient Name
+3.Doctor
+4.Customer
+5.Patient Type
+6.Billed Outlet
+</t>
+  </si>
+  <si>
+    <t>Click On Save</t>
+  </si>
+  <si>
+    <t>Page should be displayed with a aconformation pop up</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_072</t>
+  </si>
+  <si>
+    <t>MED_LGB_TC_073</t>
+  </si>
+  <si>
+    <t>Click On Print</t>
+  </si>
+  <si>
+    <t>Page should be displayed with a conformation pop up</t>
   </si>
 </sst>
 </file>
@@ -2428,7 +2606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2480,7 +2658,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2685,8 +2863,8 @@
   <dimension ref="A1:S734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I613" sqref="I613"/>
+      <pane ySplit="1" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F609" sqref="F609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2963,7 @@
       </c>
       <c r="P2" s="12">
         <f>COUNTA(A:A)-1</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>12</v>
@@ -12012,169 +12190,587 @@
       <c r="K671" s="9"/>
       <c r="L671" s="9"/>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A672" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B672" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D672" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="F672" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I672" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K672" s="9"/>
       <c r="L672" s="9"/>
     </row>
-    <row r="673" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E673" s="7">
+        <v>1</v>
+      </c>
+      <c r="F673" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G673" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K673" s="9"/>
       <c r="L673" s="9"/>
     </row>
-    <row r="674" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E674" s="23">
+        <v>2</v>
+      </c>
+      <c r="F674" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="G674" s="24" t="s">
+        <v>470</v>
+      </c>
       <c r="K674" s="9"/>
       <c r="L674" s="9"/>
     </row>
-    <row r="675" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E675" s="7">
+        <v>3</v>
+      </c>
+      <c r="F675" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G675" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="I675" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="K675" s="9"/>
       <c r="L675" s="9"/>
     </row>
-    <row r="676" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E676" s="7">
+        <v>4</v>
+      </c>
+      <c r="F676" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G676" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I676" s="7" t="s">
+        <v>476</v>
+      </c>
       <c r="K676" s="9"/>
       <c r="L676" s="9"/>
     </row>
-    <row r="677" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E677" s="7">
+        <v>5</v>
+      </c>
+      <c r="F677" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G677" s="7" t="s">
+        <v>478</v>
+      </c>
       <c r="K677" s="9"/>
       <c r="L677" s="9"/>
     </row>
-    <row r="678" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E678" s="7">
+        <v>6</v>
+      </c>
+      <c r="F678" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G678" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I678" s="7" t="s">
+        <v>474</v>
+      </c>
       <c r="K678" s="9"/>
       <c r="L678" s="9"/>
     </row>
-    <row r="679" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E679" s="7">
+        <v>7</v>
+      </c>
+      <c r="F679" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G679" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="K679" s="9"/>
       <c r="L679" s="9"/>
     </row>
-    <row r="680" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K680" s="9"/>
       <c r="L680" s="9"/>
     </row>
-    <row r="681" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A681" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B681" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D681" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="F681" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I681" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="K681" s="9"/>
       <c r="L681" s="9"/>
     </row>
-    <row r="682" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E682" s="7">
+        <v>1</v>
+      </c>
+      <c r="F682" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G682" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="K682" s="9"/>
       <c r="L682" s="9"/>
     </row>
-    <row r="683" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E683" s="23">
+        <v>2</v>
+      </c>
+      <c r="F683" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="G683" s="24" t="s">
+        <v>470</v>
+      </c>
       <c r="K683" s="9"/>
       <c r="L683" s="9"/>
     </row>
-    <row r="684" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E684" s="7">
+        <v>3</v>
+      </c>
+      <c r="F684" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G684" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="I684" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="K684" s="9"/>
       <c r="L684" s="9"/>
     </row>
-    <row r="685" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E685" s="7">
+        <v>4</v>
+      </c>
+      <c r="F685" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G685" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="I685" s="7" t="s">
+        <v>476</v>
+      </c>
       <c r="K685" s="9"/>
       <c r="L685" s="9"/>
     </row>
-    <row r="686" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E686" s="7">
+        <v>4</v>
+      </c>
+      <c r="F686" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G686" s="7" t="s">
+        <v>480</v>
+      </c>
       <c r="K686" s="9"/>
       <c r="L686" s="9"/>
     </row>
-    <row r="687" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E687" s="7">
+        <v>5</v>
+      </c>
+      <c r="F687" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G687" s="7" t="s">
+        <v>484</v>
+      </c>
       <c r="K687" s="9"/>
       <c r="L687" s="9"/>
     </row>
-    <row r="688" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E688" s="7">
+        <v>6</v>
+      </c>
+      <c r="F688" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G688" s="7" t="s">
+        <v>485</v>
+      </c>
       <c r="K688" s="9"/>
       <c r="L688" s="9"/>
     </row>
-    <row r="689" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E689" s="7">
+        <v>7</v>
+      </c>
+      <c r="F689" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G689" s="7" t="s">
+        <v>487</v>
+      </c>
       <c r="K689" s="9"/>
       <c r="L689" s="9"/>
     </row>
-    <row r="690" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L690" s="9"/>
     </row>
-    <row r="691" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A691" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B691" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D691" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="F691" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I691" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="L691" s="9"/>
     </row>
-    <row r="692" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E692" s="7">
+        <v>1</v>
+      </c>
+      <c r="F692" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G692" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="L692" s="9"/>
     </row>
-    <row r="693" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E693" s="23">
+        <v>2</v>
+      </c>
+      <c r="F693" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="G693" s="24" t="s">
+        <v>492</v>
+      </c>
       <c r="L693" s="9"/>
     </row>
-    <row r="694" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E694" s="7">
+        <v>3</v>
+      </c>
+      <c r="F694" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G694" s="7" t="s">
+        <v>493</v>
+      </c>
       <c r="L694" s="9"/>
     </row>
-    <row r="695" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="E695" s="7">
+        <v>4</v>
+      </c>
+      <c r="F695" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G695" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I695" s="7" t="s">
+        <v>474</v>
+      </c>
       <c r="L695" s="9"/>
     </row>
-    <row r="696" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E696" s="7">
+        <v>5</v>
+      </c>
+      <c r="F696" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G696" s="7" t="s">
+        <v>495</v>
+      </c>
       <c r="L696" s="9"/>
     </row>
-    <row r="697" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L697" s="9"/>
     </row>
-    <row r="698" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A698" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B698" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F698" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I698" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="L698" s="9"/>
     </row>
-    <row r="699" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E699" s="7">
+        <v>1</v>
+      </c>
+      <c r="F699" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G699" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="L699" s="9"/>
     </row>
-    <row r="700" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E700" s="23">
+        <v>2</v>
+      </c>
+      <c r="F700" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="G700" s="24" t="s">
+        <v>492</v>
+      </c>
       <c r="L700" s="9"/>
     </row>
-    <row r="701" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E701" s="7">
+        <v>3</v>
+      </c>
+      <c r="F701" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G701" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I701" s="7" t="s">
+        <v>500</v>
+      </c>
       <c r="L701" s="9"/>
     </row>
-    <row r="702" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E702" s="7">
+        <v>4</v>
+      </c>
+      <c r="F702" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G702" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I702" s="7" t="s">
+        <v>502</v>
+      </c>
       <c r="L702" s="9"/>
     </row>
-    <row r="703" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E703" s="7">
+        <v>5</v>
+      </c>
+      <c r="F703" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G703" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I703" s="7" t="s">
+        <v>505</v>
+      </c>
       <c r="L703" s="9"/>
     </row>
-    <row r="704" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E704" s="7">
+        <v>6</v>
+      </c>
+      <c r="F704" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G704" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H704" s="7" t="s">
+        <v>506</v>
+      </c>
       <c r="L704" s="9"/>
     </row>
-    <row r="705" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E705" s="7">
+        <v>7</v>
+      </c>
+      <c r="F705" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G705" s="7" t="s">
+        <v>509</v>
+      </c>
       <c r="L705" s="9"/>
     </row>
-    <row r="706" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L706" s="9"/>
     </row>
-    <row r="707" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A707" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B707" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F707" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I707" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="L707" s="9"/>
     </row>
-    <row r="708" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E708" s="7">
+        <v>1</v>
+      </c>
+      <c r="F708" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G708" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="L708" s="9"/>
     </row>
-    <row r="709" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E709" s="23">
+        <v>2</v>
+      </c>
+      <c r="F709" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="G709" s="24" t="s">
+        <v>492</v>
+      </c>
       <c r="L709" s="9"/>
     </row>
-    <row r="710" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E710" s="7">
+        <v>3</v>
+      </c>
+      <c r="F710" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G710" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I710" s="7" t="s">
+        <v>500</v>
+      </c>
       <c r="L710" s="9"/>
     </row>
-    <row r="711" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E711" s="7">
+        <v>4</v>
+      </c>
+      <c r="F711" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G711" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I711" s="7" t="s">
+        <v>502</v>
+      </c>
       <c r="L711" s="9"/>
     </row>
-    <row r="712" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E712" s="7">
+        <v>5</v>
+      </c>
+      <c r="F712" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G712" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I712" s="7" t="s">
+        <v>505</v>
+      </c>
       <c r="L712" s="9"/>
     </row>
-    <row r="713" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="E713" s="7">
+        <v>6</v>
+      </c>
+      <c r="F713" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G713" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H713" s="7" t="s">
+        <v>506</v>
+      </c>
       <c r="L713" s="9"/>
     </row>
-    <row r="714" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E714" s="7">
+        <v>7</v>
+      </c>
+      <c r="F714" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G714" s="7" t="s">
+        <v>513</v>
+      </c>
       <c r="L714" s="9"/>
     </row>
-    <row r="715" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L715" s="9"/>
     </row>
-    <row r="716" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B716" s="19"/>
       <c r="L716" s="9"/>
     </row>
-    <row r="717" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L717" s="9"/>
     </row>
-    <row r="718" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L718" s="9"/>
     </row>
-    <row r="719" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L719" s="9"/>
     </row>
-    <row r="720" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L720" s="9"/>
     </row>
     <row r="721" spans="12:12" x14ac:dyDescent="0.25">
@@ -12225,13 +12821,13 @@
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K346 J347:J356 K357:K485 C2:C662" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K346 J347:J356 K357:K485 C2:C662 C672 C716" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C730" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C663:C671 C673:C715 C717:C730" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B56 B13 B23 B30 B42 B69 B79 B92 B105 B119 B133 B146 B160 B175 B189 B203 B218 B231 B244 B257 B270 B284 B298 B309 B320 B333 B345 B347:B356 B361 B371 B381 B390 B400 B411 B420 B429 B437 B445 B453 B460 B467 B474 B481 B488 B495 B503 B509 B517 B525 B532 B539 B545 B551 B557 B563 B569 B576 B583 B592 B599 B608 B617 B626 B635 B644 B653 B660" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B56 B13 B23 B30 B42 B69 B79 B92 B105 B119 B133 B146 B160 B175 B189 B203 B218 B231 B244 B257 B270 B284 B298 B309 B320 B333 B345 B347:B356 B361 B371 B381 B390 B400 B411 B420 B429 B437 B445 B453 B460 B467 B474 B481 B488 B495 B503 B509 B517 B525 B532 B539 B545 B551 B557 B563 B569 B576 B583 B592 B599 B608 B617 B626 B635 B644 B653 B660 B672 B681 B691 B698 B707 B716" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L346 K347:K356 L357:L734" xr:uid="{00000000-0002-0000-0000-000003000000}">

--- a/Test Case/Nithya/Test Case- Lab & General Billing.xlsx
+++ b/Test Case/Nithya/Test Case- Lab & General Billing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\CentralRepository-Mediware\Test Case\Nithya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1439B1-C63C-4649-938C-40DD945568F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D504C650-E774-4910-8345-C62BE7567CAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="516">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2338,6 +2338,12 @@
   </si>
   <si>
     <t>Page should be displayed with a conformation pop up</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to save Refund</t>
+  </si>
+  <si>
+    <t>Verify whether user is able to Print Refund</t>
   </si>
 </sst>
 </file>
@@ -2863,8 +2869,8 @@
   <dimension ref="A1:S734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F609" sqref="F609"/>
+      <pane ySplit="1" topLeftCell="A705" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D707" sqref="D707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12536,6 +12542,9 @@
       <c r="B698" s="19" t="s">
         <v>36</v>
       </c>
+      <c r="D698" s="24" t="s">
+        <v>514</v>
+      </c>
       <c r="F698" s="7" t="s">
         <v>147</v>
       </c>
@@ -12649,6 +12658,9 @@
       </c>
       <c r="B707" s="19" t="s">
         <v>36</v>
+      </c>
+      <c r="D707" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="F707" s="7" t="s">
         <v>147</v>
